--- a/experimenten jiswi/variannt op ouderdag.xlsx
+++ b/experimenten jiswi/variannt op ouderdag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/experimenten jiswi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC10487271D94BF05ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{700967E6-4F92-4712-817E-38734706A5BC}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC10487271D94BF05ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C07A66E-3708-44C6-B699-A1B47F409AB7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lage bouw" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="112">
   <si>
     <t>LOADING CONDITION</t>
   </si>
@@ -358,6 +358,12 @@
   <si>
     <t>Deck is 6101 mm from WL</t>
   </si>
+  <si>
+    <t>SHIP DOES NOT ADHERE TO LCB BETWEEN -5% AND +5%</t>
+  </si>
+  <si>
+    <t>Deck is 2640.02 mm from WL</t>
+  </si>
 </sst>
 </file>
 
@@ -679,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M350"/>
+  <dimension ref="A2:M351"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>177.357</v>
+        <v>165.387</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -748,7 +754,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>9.8000000000000007</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -769,7 +775,7 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>7.9989999999999997</v>
+        <v>5.2560000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -777,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>7.9989999999999997</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -798,7 +804,7 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>14.302</v>
+        <v>14.866</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -814,13 +820,13 @@
         <v>36</v>
       </c>
       <c r="B18">
-        <v>154.63200000000001</v>
+        <v>159.09</v>
       </c>
       <c r="C18">
         <v>7.9649999999999999</v>
       </c>
       <c r="D18">
-        <v>7.9989999999999997</v>
+        <v>10.811</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -833,7 +839,7 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>25413.855</v>
+        <v>24262.84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -841,7 +847,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>57047.949000000001</v>
+        <v>54643.146000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -849,13 +855,13 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>86.117999999999995</v>
+        <v>98.180999999999997</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.78</v>
+        <v>5.1470000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -863,13 +869,13 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>80.108000000000004</v>
+        <v>80.143000000000001</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.2989999999999995</v>
+        <v>8.4250000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -877,7 +883,7 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>0.52829999999999999</v>
+        <v>0.52390000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -885,7 +891,7 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>0.5292</v>
+        <v>0.56279999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -898,7 +904,7 @@
         <v>43</v>
       </c>
       <c r="B27">
-        <v>4663.8580000000002</v>
+        <v>4222.0789999999997</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,13 +912,13 @@
         <v>44</v>
       </c>
       <c r="B28">
-        <v>78.117000000000004</v>
+        <v>87.105999999999995</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>7.9989999999999997</v>
+        <v>8.298</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -920,13 +926,13 @@
         <v>45</v>
       </c>
       <c r="B29">
-        <v>333961.42200000002</v>
+        <v>288859.94900000002</v>
       </c>
       <c r="C29" s="1">
-        <v>9146900</v>
+        <v>7332100</v>
       </c>
       <c r="D29" s="1">
-        <v>9480900</v>
+        <v>7603100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -934,7 +940,7 @@
         <v>46</v>
       </c>
       <c r="B30">
-        <v>5778.8729999999996</v>
+        <v>5408.585</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,7 +956,7 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <v>226.495</v>
+        <v>214.797</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -963,7 +969,7 @@
         <v>49</v>
       </c>
       <c r="B34">
-        <v>5734.33</v>
+        <v>6858.5950000000003</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,13 +977,13 @@
         <v>50</v>
       </c>
       <c r="B35">
-        <v>140.78</v>
+        <v>142.28299999999999</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>4.968</v>
+        <v>5.8639999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -993,7 +999,7 @@
         <v>52</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,7 +1007,7 @@
         <v>53</v>
       </c>
       <c r="B38">
-        <v>946.69600000000003</v>
+        <v>997.93499999999995</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1009,13 +1015,13 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <v>142.26599999999999</v>
+        <v>143.31</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>8.4589999999999996</v>
+        <v>9.8849999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1023,13 +1029,13 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>36012.506000000001</v>
+        <v>38399.616999999998</v>
       </c>
       <c r="C40">
-        <v>174012.679</v>
+        <v>197573.636</v>
       </c>
       <c r="D40">
-        <v>210025.185</v>
+        <v>235491.97399999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1055,7 +1061,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>-1.853</v>
+        <v>12.010999999999999</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1063,167 +1069,167 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>6.593</v>
+        <v>19.887</v>
       </c>
       <c r="B45">
-        <v>27.963999999999999</v>
+        <v>26.140999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>15.038</v>
+        <v>27.762</v>
       </c>
       <c r="B46">
-        <v>62.734999999999999</v>
+        <v>58.162999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>23.484000000000002</v>
+        <v>35.637999999999998</v>
       </c>
       <c r="B47">
-        <v>98.295000000000002</v>
+        <v>90.682000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>31.928999999999998</v>
+        <v>43.514000000000003</v>
       </c>
       <c r="B48">
-        <v>132.36099999999999</v>
+        <v>121.59399999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>40.375</v>
+        <v>51.389000000000003</v>
       </c>
       <c r="B49">
-        <v>163.13</v>
+        <v>149.374</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>48.82</v>
+        <v>59.265000000000001</v>
       </c>
       <c r="B50">
-        <v>189.03399999999999</v>
+        <v>172.81700000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>57.265999999999998</v>
+        <v>67.14</v>
       </c>
       <c r="B51">
-        <v>208.75299999999999</v>
+        <v>191.066</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>65.712000000000003</v>
+        <v>75.016000000000005</v>
       </c>
       <c r="B52">
-        <v>221.35</v>
+        <v>203.732</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>74.156999999999996</v>
+        <v>82.891000000000005</v>
       </c>
       <c r="B53">
-        <v>226.495</v>
+        <v>211.08699999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>82.602999999999994</v>
+        <v>90.766999999999996</v>
       </c>
       <c r="B54">
-        <v>224.75299999999999</v>
+        <v>214.255</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>91.048000000000002</v>
+        <v>98.641999999999996</v>
       </c>
       <c r="B55">
-        <v>217.875</v>
+        <v>214.797</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>99.494</v>
+        <v>106.518</v>
       </c>
       <c r="B56">
-        <v>208.167</v>
+        <v>212.905</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>107.93899999999999</v>
+        <v>114.39400000000001</v>
       </c>
       <c r="B57">
-        <v>196.14699999999999</v>
+        <v>208.35499999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>116.38500000000001</v>
+        <v>122.26900000000001</v>
       </c>
       <c r="B58">
-        <v>181.88300000000001</v>
+        <v>200.916</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>124.831</v>
+        <v>130.14500000000001</v>
       </c>
       <c r="B59">
-        <v>165.45500000000001</v>
+        <v>190.39699999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>133.27600000000001</v>
+        <v>138.02000000000001</v>
       </c>
       <c r="B60">
-        <v>146.90199999999999</v>
+        <v>176.52500000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>141.72200000000001</v>
+        <v>145.89599999999999</v>
       </c>
       <c r="B61">
-        <v>126.035</v>
+        <v>158.35</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>150.167</v>
+        <v>153.77099999999999</v>
       </c>
       <c r="B62">
-        <v>101.943</v>
+        <v>133.28100000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>158.613</v>
+        <v>161.64699999999999</v>
       </c>
       <c r="B63">
-        <v>72.697999999999993</v>
+        <v>97.668999999999997</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>167.05799999999999</v>
+        <v>169.52199999999999</v>
       </c>
       <c r="B64">
-        <v>34.901000000000003</v>
+        <v>45.988999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>175.50399999999999</v>
+        <v>177.398</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1263,7 +1269,7 @@
         <v>-2.2919999999999998</v>
       </c>
       <c r="B70">
-        <v>147.59399999999999</v>
+        <v>144.36600000000001</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1271,7 +1277,7 @@
         <v>6.7549999999999999</v>
       </c>
       <c r="B71">
-        <v>197.23599999999999</v>
+        <v>190.98599999999999</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1279,7 +1285,7 @@
         <v>15.803000000000001</v>
       </c>
       <c r="B72">
-        <v>246.67099999999999</v>
+        <v>237.42699999999999</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1287,7 +1293,7 @@
         <v>24.85</v>
       </c>
       <c r="B73">
-        <v>294.00299999999999</v>
+        <v>281.84899999999999</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1295,7 +1301,7 @@
         <v>33.898000000000003</v>
       </c>
       <c r="B74">
-        <v>337.291</v>
+        <v>322.42899999999997</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1303,7 +1309,7 @@
         <v>42.945999999999998</v>
       </c>
       <c r="B75">
-        <v>374.589</v>
+        <v>357.36399999999998</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1311,7 +1317,7 @@
         <v>51.993000000000002</v>
       </c>
       <c r="B76">
-        <v>404.05</v>
+        <v>384.94900000000001</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1319,7 +1325,7 @@
         <v>61.040999999999997</v>
       </c>
       <c r="B77">
-        <v>424.10500000000002</v>
+        <v>403.74299999999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1327,7 +1333,7 @@
         <v>70.087999999999994</v>
       </c>
       <c r="B78">
-        <v>433.76100000000002</v>
+        <v>412.834</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1335,7 +1341,7 @@
         <v>79.135999999999996</v>
       </c>
       <c r="B79">
-        <v>433.02499999999998</v>
+        <v>412.23599999999999</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1343,7 +1349,7 @@
         <v>88.183999999999997</v>
       </c>
       <c r="B80">
-        <v>423.43700000000001</v>
+        <v>403.37099999999998</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1351,7 +1357,7 @@
         <v>97.230999999999995</v>
       </c>
       <c r="B81">
-        <v>408.154</v>
+        <v>389.15699999999998</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1359,7 +1365,7 @@
         <v>106.279</v>
       </c>
       <c r="B82">
-        <v>388.67</v>
+        <v>370.94099999999997</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1367,7 +1373,7 @@
         <v>115.327</v>
       </c>
       <c r="B83">
-        <v>365.07900000000001</v>
+        <v>348.78</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1375,7 +1381,7 @@
         <v>124.374</v>
       </c>
       <c r="B84">
-        <v>337.50700000000001</v>
+        <v>322.827</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1383,7 +1389,7 @@
         <v>133.422</v>
       </c>
       <c r="B85">
-        <v>305.90899999999999</v>
+        <v>293.15499999999997</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1391,7 +1397,7 @@
         <v>142.46899999999999</v>
       </c>
       <c r="B86">
-        <v>269.24299999999999</v>
+        <v>258.971</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1399,7 +1405,7 @@
         <v>151.517</v>
       </c>
       <c r="B87">
-        <v>223.11500000000001</v>
+        <v>216.261</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1407,7 +1413,7 @@
         <v>160.565</v>
       </c>
       <c r="B88">
-        <v>160.751</v>
+        <v>157.66</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1415,7 +1421,7 @@
         <v>169.61199999999999</v>
       </c>
       <c r="B89">
-        <v>75.388000000000005</v>
+        <v>74.772999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1452,36 +1458,36 @@
         <v>121.66</v>
       </c>
       <c r="B94">
-        <v>184.42699999999999</v>
+        <v>191.39400000000001</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>135.191</v>
+        <v>135.54599999999999</v>
       </c>
       <c r="B95">
-        <v>153.28800000000001</v>
+        <v>172.27799999999999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>148.72200000000001</v>
+        <v>149.43299999999999</v>
       </c>
       <c r="B96">
-        <v>115.07899999999999</v>
+        <v>140.64599999999999</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>162.25200000000001</v>
+        <v>163.31899999999999</v>
       </c>
       <c r="B97">
-        <v>63.226999999999997</v>
+        <v>83.272000000000006</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>175.78299999999999</v>
+        <v>177.20599999999999</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1583,31 +1589,31 @@
         <v>-2.2919999999999998</v>
       </c>
       <c r="B104">
-        <v>62.688000000000002</v>
+        <v>61.957000000000001</v>
       </c>
       <c r="C104">
-        <v>6.3E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D104">
         <v>-2.2919999999999998</v>
       </c>
       <c r="E104">
-        <v>-2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F104">
-        <v>11.542</v>
+        <v>11.571999999999999</v>
       </c>
       <c r="G104">
-        <v>5.2910000000000004</v>
+        <v>5.1059999999999999</v>
       </c>
       <c r="H104">
-        <v>0.443</v>
+        <v>0.433</v>
       </c>
       <c r="I104">
-        <v>4.8470000000000004</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="J104">
-        <v>8.077</v>
+        <v>8.0809999999999995</v>
       </c>
       <c r="K104">
         <v>14.1</v>
@@ -1618,31 +1624,31 @@
         <v>6.7549999999999999</v>
       </c>
       <c r="B105">
-        <v>67.688000000000002</v>
+        <v>66.587000000000003</v>
       </c>
       <c r="C105">
-        <v>6.8000000000000005E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D105">
         <v>6.7549999999999999</v>
       </c>
       <c r="E105">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F105">
-        <v>10.834</v>
+        <v>10.898999999999999</v>
       </c>
       <c r="G105">
-        <v>6.718</v>
+        <v>6.3920000000000003</v>
       </c>
       <c r="H105">
-        <v>0.75700000000000001</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="I105">
-        <v>5.9610000000000003</v>
+        <v>5.6639999999999997</v>
       </c>
       <c r="J105">
-        <v>6.5129999999999999</v>
+        <v>6.5190000000000001</v>
       </c>
       <c r="K105">
         <v>14.1</v>
@@ -1653,31 +1659,31 @@
         <v>15.803000000000001</v>
       </c>
       <c r="B106">
-        <v>72.486000000000004</v>
+        <v>71.128</v>
       </c>
       <c r="C106">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D106">
         <v>15.803000000000001</v>
       </c>
       <c r="E106">
-        <v>0.01</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="F106">
-        <v>10.192</v>
+        <v>10.286</v>
       </c>
       <c r="G106">
-        <v>8.2940000000000005</v>
+        <v>7.8419999999999996</v>
       </c>
       <c r="H106">
-        <v>1.1319999999999999</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="I106">
-        <v>7.1619999999999999</v>
+        <v>6.76</v>
       </c>
       <c r="J106">
-        <v>5.0890000000000004</v>
+        <v>5.0960000000000001</v>
       </c>
       <c r="K106">
         <v>14.1</v>
@@ -1688,31 +1694,31 @@
         <v>24.85</v>
       </c>
       <c r="B107">
-        <v>76.847999999999999</v>
+        <v>75.293999999999997</v>
       </c>
       <c r="C107">
-        <v>7.6999999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D107">
         <v>24.85</v>
       </c>
       <c r="E107">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F107">
-        <v>9.61</v>
+        <v>9.7449999999999992</v>
       </c>
       <c r="G107">
-        <v>9.9510000000000005</v>
+        <v>9.3569999999999993</v>
       </c>
       <c r="H107">
-        <v>1.5509999999999999</v>
+        <v>1.472</v>
       </c>
       <c r="I107">
-        <v>8.4</v>
+        <v>7.8849999999999998</v>
       </c>
       <c r="J107">
-        <v>3.82</v>
+        <v>3.827</v>
       </c>
       <c r="K107">
         <v>14.1</v>
@@ -1723,31 +1729,31 @@
         <v>33.898000000000003</v>
       </c>
       <c r="B108">
-        <v>80.634</v>
+        <v>78.924999999999997</v>
       </c>
       <c r="C108">
-        <v>8.1000000000000003E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D108">
         <v>33.898000000000003</v>
       </c>
       <c r="E108">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F108">
-        <v>9.1120000000000001</v>
+        <v>9.2739999999999991</v>
       </c>
       <c r="G108">
-        <v>11.539</v>
+        <v>10.836</v>
       </c>
       <c r="H108">
-        <v>1.978</v>
+        <v>1.8720000000000001</v>
       </c>
       <c r="I108">
-        <v>9.5609999999999999</v>
+        <v>8.9649999999999999</v>
       </c>
       <c r="J108">
-        <v>2.7189999999999999</v>
+        <v>2.7269999999999999</v>
       </c>
       <c r="K108">
         <v>14.1</v>
@@ -1758,31 +1764,31 @@
         <v>42.945999999999998</v>
       </c>
       <c r="B109">
-        <v>83.733000000000004</v>
+        <v>81.902000000000001</v>
       </c>
       <c r="C109">
-        <v>8.4000000000000005E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D109">
         <v>42.945999999999998</v>
       </c>
       <c r="E109">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F109">
-        <v>8.6999999999999993</v>
+        <v>8.8919999999999995</v>
       </c>
       <c r="G109">
-        <v>12.958</v>
+        <v>12.134</v>
       </c>
       <c r="H109">
-        <v>2.379</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="I109">
-        <v>10.577999999999999</v>
+        <v>9.891</v>
       </c>
       <c r="J109">
-        <v>1.8</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="K109">
         <v>14.1</v>
@@ -1793,31 +1799,31 @@
         <v>51.993000000000002</v>
       </c>
       <c r="B110">
-        <v>86.046000000000006</v>
+        <v>84.125</v>
       </c>
       <c r="C110">
-        <v>8.5999999999999993E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D110">
         <v>51.993000000000002</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="F110">
-        <v>8.3710000000000004</v>
+        <v>8.5850000000000009</v>
       </c>
       <c r="G110">
-        <v>14.098000000000001</v>
+        <v>13.199</v>
       </c>
       <c r="H110">
-        <v>2.726</v>
+        <v>2.5659999999999998</v>
       </c>
       <c r="I110">
-        <v>11.372</v>
+        <v>10.632999999999999</v>
       </c>
       <c r="J110">
-        <v>1.075</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="K110">
         <v>14.1</v>
@@ -1828,31 +1834,31 @@
         <v>61.040999999999997</v>
       </c>
       <c r="B111">
-        <v>87.49</v>
+        <v>85.504999999999995</v>
       </c>
       <c r="C111">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D111">
         <v>61.040999999999997</v>
       </c>
       <c r="E111">
-        <v>-1E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F111">
-        <v>8.14</v>
+        <v>8.3689999999999998</v>
       </c>
       <c r="G111">
-        <v>14.843</v>
+        <v>13.895</v>
       </c>
       <c r="H111">
-        <v>2.9820000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="I111">
-        <v>11.861000000000001</v>
+        <v>11.095000000000001</v>
       </c>
       <c r="J111">
-        <v>0.55100000000000005</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="K111">
         <v>14.1</v>
@@ -1863,31 +1869,31 @@
         <v>70.087999999999994</v>
       </c>
       <c r="B112">
-        <v>88.004999999999995</v>
+        <v>85.983999999999995</v>
       </c>
       <c r="C112">
-        <v>8.7999999999999995E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D112">
         <v>70.087999999999994</v>
       </c>
       <c r="E112">
-        <v>-2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F112">
-        <v>8.0069999999999997</v>
+        <v>8.2460000000000004</v>
       </c>
       <c r="G112">
-        <v>15.122</v>
+        <v>14.134</v>
       </c>
       <c r="H112">
-        <v>3.1240000000000001</v>
+        <v>2.93</v>
       </c>
       <c r="I112">
-        <v>11.997999999999999</v>
+        <v>11.204000000000001</v>
       </c>
       <c r="J112">
-        <v>0.22500000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="K112">
         <v>14.1</v>
@@ -1898,31 +1904,31 @@
         <v>79.135999999999996</v>
       </c>
       <c r="B113">
-        <v>87.587999999999994</v>
+        <v>85.551000000000002</v>
       </c>
       <c r="C113">
-        <v>8.7999999999999995E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D113">
         <v>79.135999999999996</v>
       </c>
       <c r="E113">
-        <v>-2E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F113">
-        <v>7.9569999999999999</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="G113">
-        <v>14.927</v>
+        <v>13.946999999999999</v>
       </c>
       <c r="H113">
-        <v>3.1560000000000001</v>
+        <v>2.956</v>
       </c>
       <c r="I113">
-        <v>11.771000000000001</v>
+        <v>10.992000000000001</v>
       </c>
       <c r="J113">
-        <v>7.6999999999999999E-2</v>
+        <v>0.105</v>
       </c>
       <c r="K113">
         <v>14.1</v>
@@ -1933,31 +1939,31 @@
         <v>88.183999999999997</v>
       </c>
       <c r="B114">
-        <v>86.332999999999998</v>
+        <v>84.293999999999997</v>
       </c>
       <c r="C114">
-        <v>8.5999999999999993E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D114">
         <v>88.183999999999997</v>
       </c>
       <c r="E114">
-        <v>-6.0000000000000001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F114">
-        <v>7.9859999999999998</v>
+        <v>8.2070000000000007</v>
       </c>
       <c r="G114">
-        <v>14.292999999999999</v>
+        <v>13.33</v>
       </c>
       <c r="H114">
-        <v>3.089</v>
+        <v>2.8929999999999998</v>
       </c>
       <c r="I114">
-        <v>11.204000000000001</v>
+        <v>10.436999999999999</v>
       </c>
       <c r="J114">
-        <v>5.7000000000000002E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="K114">
         <v>14.1</v>
@@ -1968,31 +1974,31 @@
         <v>97.230999999999995</v>
       </c>
       <c r="B115">
-        <v>84.468999999999994</v>
+        <v>82.426000000000002</v>
       </c>
       <c r="C115">
-        <v>8.4000000000000005E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D115">
         <v>97.230999999999995</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="F115">
-        <v>8.0500000000000007</v>
+        <v>8.2520000000000007</v>
       </c>
       <c r="G115">
-        <v>13.395</v>
+        <v>12.492000000000001</v>
       </c>
       <c r="H115">
-        <v>2.9729999999999999</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="I115">
-        <v>10.420999999999999</v>
+        <v>9.7070000000000007</v>
       </c>
       <c r="J115">
-        <v>0.08</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K115">
         <v>14.1</v>
@@ -2003,31 +2009,31 @@
         <v>106.279</v>
       </c>
       <c r="B116">
-        <v>82.113</v>
+        <v>80.052999999999997</v>
       </c>
       <c r="C116">
-        <v>8.2000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D116">
         <v>106.279</v>
       </c>
       <c r="E116">
-        <v>-1E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F116">
-        <v>8.1359999999999992</v>
+        <v>8.3089999999999993</v>
       </c>
       <c r="G116">
-        <v>12.297000000000001</v>
+        <v>11.433</v>
       </c>
       <c r="H116">
-        <v>2.831</v>
+        <v>2.65</v>
       </c>
       <c r="I116">
-        <v>9.4659999999999993</v>
+        <v>8.7840000000000007</v>
       </c>
       <c r="J116">
-        <v>0.108</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="K116">
         <v>14.1</v>
@@ -2038,31 +2044,31 @@
         <v>115.327</v>
       </c>
       <c r="B117">
-        <v>79.287000000000006</v>
+        <v>77.197000000000003</v>
       </c>
       <c r="C117">
-        <v>7.9000000000000001E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D117">
         <v>115.327</v>
       </c>
       <c r="E117">
-        <v>1E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="F117">
-        <v>8.2569999999999997</v>
+        <v>8.3849999999999998</v>
       </c>
       <c r="G117">
-        <v>11.038</v>
+        <v>10.226000000000001</v>
       </c>
       <c r="H117">
-        <v>2.6589999999999998</v>
+        <v>2.4929999999999999</v>
       </c>
       <c r="I117">
-        <v>8.3789999999999996</v>
+        <v>7.7329999999999997</v>
       </c>
       <c r="J117">
-        <v>0.13500000000000001</v>
+        <v>0.217</v>
       </c>
       <c r="K117">
         <v>14.1</v>
@@ -2073,31 +2079,31 @@
         <v>124.374</v>
       </c>
       <c r="B118">
-        <v>76.043000000000006</v>
+        <v>73.91</v>
       </c>
       <c r="C118">
-        <v>7.5999999999999998E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D118">
         <v>124.374</v>
       </c>
       <c r="E118">
-        <v>-1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F118">
-        <v>8.4079999999999995</v>
+        <v>8.4909999999999997</v>
       </c>
       <c r="G118">
-        <v>9.702</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="H118">
-        <v>2.472</v>
+        <v>2.3239999999999998</v>
       </c>
       <c r="I118">
-        <v>7.23</v>
+        <v>6.6260000000000003</v>
       </c>
       <c r="J118">
-        <v>0.155</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="K118">
         <v>14.1</v>
@@ -2108,31 +2114,31 @@
         <v>133.422</v>
       </c>
       <c r="B119">
-        <v>72.483999999999995</v>
+        <v>70.257000000000005</v>
       </c>
       <c r="C119">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D119">
         <v>133.422</v>
       </c>
       <c r="E119">
-        <v>-3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>8.5990000000000002</v>
+        <v>8.6310000000000002</v>
       </c>
       <c r="G119">
-        <v>8.31</v>
+        <v>7.6260000000000003</v>
       </c>
       <c r="H119">
-        <v>2.2650000000000001</v>
+        <v>2.1379999999999999</v>
       </c>
       <c r="I119">
-        <v>6.0449999999999999</v>
+        <v>5.4889999999999999</v>
       </c>
       <c r="J119">
-        <v>0.16200000000000001</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="K119">
         <v>14.1</v>
@@ -2143,31 +2149,31 @@
         <v>142.46899999999999</v>
       </c>
       <c r="B120">
-        <v>68.519000000000005</v>
+        <v>66.277000000000001</v>
       </c>
       <c r="C120">
-        <v>6.9000000000000006E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D120">
         <v>142.46899999999999</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="F120">
-        <v>8.8309999999999995</v>
+        <v>8.8079999999999998</v>
       </c>
       <c r="G120">
-        <v>6.8929999999999998</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="H120">
-        <v>2.0390000000000001</v>
+        <v>1.9379999999999999</v>
       </c>
       <c r="I120">
-        <v>4.8529999999999998</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="J120">
-        <v>0.14599999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="K120">
         <v>14.1</v>
@@ -2178,10 +2184,10 @@
         <v>151.517</v>
       </c>
       <c r="B121">
-        <v>62.926000000000002</v>
+        <v>61.212000000000003</v>
       </c>
       <c r="C121">
-        <v>6.3E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D121">
         <v>151.517</v>
@@ -2190,19 +2196,19 @@
         <v>-2E-3</v>
       </c>
       <c r="F121">
-        <v>9.0429999999999993</v>
+        <v>9.0039999999999996</v>
       </c>
       <c r="G121">
-        <v>5.1929999999999996</v>
+        <v>4.8179999999999996</v>
       </c>
       <c r="H121">
-        <v>1.7569999999999999</v>
+        <v>1.694</v>
       </c>
       <c r="I121">
-        <v>3.4369999999999998</v>
+        <v>3.1240000000000001</v>
       </c>
       <c r="J121">
-        <v>0.10299999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="K121">
         <v>14.1</v>
@@ -2213,10 +2219,10 @@
         <v>160.565</v>
       </c>
       <c r="B122">
-        <v>53.965000000000003</v>
+        <v>53.170999999999999</v>
       </c>
       <c r="C122">
-        <v>5.3999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D122">
         <v>160.565</v>
@@ -2225,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>9.1639999999999997</v>
+        <v>9.1340000000000003</v>
       </c>
       <c r="G122">
-        <v>3.1509999999999998</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="H122">
-        <v>1.3680000000000001</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="I122">
-        <v>1.784</v>
+        <v>1.681</v>
       </c>
       <c r="J122">
-        <v>3.6999999999999998E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K122">
         <v>14.1</v>
@@ -2248,7 +2254,7 @@
         <v>169.61199999999999</v>
       </c>
       <c r="B123">
-        <v>38.889000000000003</v>
+        <v>38.710999999999999</v>
       </c>
       <c r="C123">
         <v>3.9E-2</v>
@@ -2260,16 +2266,16 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>9.6920000000000002</v>
+        <v>9.6780000000000008</v>
       </c>
       <c r="G123">
-        <v>1.121</v>
+        <v>1.107</v>
       </c>
       <c r="H123">
-        <v>0.67600000000000005</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="I123">
-        <v>0.44500000000000001</v>
+        <v>0.434</v>
       </c>
       <c r="J123">
         <v>1.7330000000000001</v>
@@ -2387,7 +2393,7 @@
         <v>29</v>
       </c>
       <c r="B134">
-        <v>9.8000000000000007</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -2427,7 +2433,7 @@
         <v>82</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -2555,19 +2561,19 @@
         <v>9.7744444444444394</v>
       </c>
       <c r="C152">
-        <v>0.23433297666130501</v>
+        <v>0.24266513128185199</v>
       </c>
       <c r="D152">
-        <v>803681.51125351805</v>
+        <v>1032894.92555584</v>
       </c>
       <c r="E152">
-        <v>512716.41683647601</v>
+        <v>496334.06172412401</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <v>180804.00488601901</v>
+        <v>428882.25037614402</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -2576,16 +2582,16 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>110161.089531021</v>
+        <v>107678.613455571</v>
       </c>
       <c r="K152">
         <v>0</v>
       </c>
       <c r="L152">
-        <v>0.19737168237969999</v>
+        <v>0.13937842954214499</v>
       </c>
       <c r="M152">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
@@ -2650,19 +2656,19 @@
         <v>3.0866666666666598</v>
       </c>
       <c r="C156">
-        <v>7.3999887366728107E-2</v>
+        <v>7.6631094089005994E-2</v>
       </c>
       <c r="D156">
-        <v>70089.031207613894</v>
+        <v>67989.673638634893</v>
       </c>
       <c r="E156">
-        <v>59103.394028845498</v>
+        <v>57251.531285225203</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
-        <v>4.3762932425311499E-2</v>
+        <v>0.108878615855394</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -2671,16 +2677,16 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>10985.5934158359</v>
+        <v>10738.0334747938</v>
       </c>
       <c r="K156">
         <v>0</v>
       </c>
       <c r="L156">
-        <v>0.20435266849056899</v>
+        <v>0.15180787582795499</v>
       </c>
       <c r="M156">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -2691,19 +2697,19 @@
         <v>3.13811111111111</v>
       </c>
       <c r="C157">
-        <v>7.5233218822840203E-2</v>
+        <v>7.7908278990489493E-2</v>
       </c>
       <c r="D157">
-        <v>72313.360614274294</v>
+        <v>70147.003119917397</v>
       </c>
       <c r="E157">
-        <v>60958.467189231902</v>
+        <v>59047.898331136501</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157">
-        <v>6.2008285308802501E-2</v>
+        <v>0.15407775092523901</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -2712,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>11354.831416757101</v>
+        <v>11098.9507110299</v>
       </c>
       <c r="K157">
         <v>0</v>
       </c>
       <c r="L157">
-        <v>0.20424005904008999</v>
+        <v>0.15160836587780199</v>
       </c>
       <c r="M157">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -2732,19 +2738,19 @@
         <v>3.1895555555555499</v>
       </c>
       <c r="C158">
-        <v>7.6466550278952397E-2</v>
+        <v>7.9185463891972896E-2</v>
       </c>
       <c r="D158">
-        <v>74570.579732331695</v>
+        <v>72336.230571717606</v>
       </c>
       <c r="E158">
-        <v>62840.3202808758</v>
+        <v>60870.181319425501</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>8.6926324374291E-2</v>
+        <v>0.215730873296194</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -2753,16 +2759,16 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>11730.1725251315</v>
+        <v>11465.833521418699</v>
       </c>
       <c r="K158">
         <v>0</v>
       </c>
       <c r="L158">
-        <v>0.20412967473079799</v>
+        <v>0.15141276742295201</v>
       </c>
       <c r="M158">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
@@ -2773,19 +2779,19 @@
         <v>3.2410000000000001</v>
       </c>
       <c r="C159">
-        <v>7.7699881735064494E-2</v>
+        <v>8.0462648793456298E-2</v>
       </c>
       <c r="D159">
-        <v>76860.639911320293</v>
+        <v>74557.311843039497</v>
       </c>
       <c r="E159">
-        <v>64748.902548775099</v>
+        <v>62718.330935989899</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>0.120621586070808</v>
+        <v>0.29900108945339499</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -2794,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>12111.6167409591</v>
+        <v>11838.6819059602</v>
       </c>
       <c r="K159">
         <v>0</v>
       </c>
       <c r="L159">
-        <v>0.204021436284678</v>
+        <v>0.151220941764871</v>
       </c>
       <c r="M159">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
@@ -2814,19 +2820,19 @@
         <v>3.2924444444444401</v>
       </c>
       <c r="C160">
-        <v>7.8933213191176604E-2</v>
+        <v>8.1739833694939798E-2</v>
       </c>
       <c r="D160">
-        <v>79183.494011023999</v>
+        <v>76810.205070108699</v>
       </c>
       <c r="E160">
-        <v>66684.164189861607</v>
+        <v>64592.298792169502</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0.165756922409378</v>
+        <v>0.41041328492246898</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -2835,16 +2841,16 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>12499.16406424</v>
+        <v>12217.4958646543</v>
       </c>
       <c r="K160">
         <v>0</v>
       </c>
       <c r="L160">
-        <v>0.20391526846001201</v>
+        <v>0.15103275724212001</v>
       </c>
       <c r="M160">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -2855,19 +2861,19 @@
         <v>3.34388888888888</v>
       </c>
       <c r="C161">
-        <v>8.0166544647288798E-2</v>
+        <v>8.30170185964232E-2</v>
       </c>
       <c r="D161">
-        <v>81539.096488500407</v>
+        <v>79094.870934500897</v>
       </c>
       <c r="E161">
-        <v>68646.056320332398</v>
+        <v>66492.037392976301</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
-        <v>0.22567319376763401</v>
+        <v>0.55814402341134295</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -2876,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>12892.8144949741</v>
+        <v>12602.2753975011</v>
       </c>
       <c r="K161">
         <v>0</v>
       </c>
       <c r="L161">
-        <v>0.20381109978622999</v>
+        <v>0.15084808876934899</v>
       </c>
       <c r="M161">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -2896,19 +2902,19 @@
         <v>3.3953333333333302</v>
       </c>
       <c r="C162">
-        <v>8.1399876103400895E-2</v>
+        <v>8.42942034979067E-2</v>
       </c>
       <c r="D162">
-        <v>83927.403505954702</v>
+        <v>81411.272968995501</v>
       </c>
       <c r="E162">
-        <v>70634.530944593906</v>
+        <v>68417.500106893101</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
-        <v>0.30452819923906099</v>
+        <v>0.75235760181007005</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -2917,16 +2923,16 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>13292.5680331615</v>
+        <v>12993.0205045005</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
-        <v>0.20370886231997901</v>
+        <v>0.15066681741310201</v>
       </c>
       <c r="M162">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -2937,19 +2943,19 @@
         <v>3.4467777777777702</v>
       </c>
       <c r="C163">
-        <v>8.2633207559513103E-2</v>
+        <v>8.5571388399390103E-2</v>
       </c>
       <c r="D163">
-        <v>86348.373061274906</v>
+        <v>83759.377915567704</v>
       </c>
       <c r="E163">
-        <v>72649.540925714202</v>
+        <v>70368.641137138897</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
-        <v>0.40745675860526198</v>
+        <v>1.0055927761022601</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -2958,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>13698.424678802099</v>
+        <v>13389.731185652599</v>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="L163">
-        <v>0.20360849142040399</v>
+        <v>0.150488830000958</v>
       </c>
       <c r="M163">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
@@ -2978,19 +2984,19 @@
         <v>3.4982222222222199</v>
       </c>
       <c r="C164">
-        <v>8.3866539015625199E-2</v>
+        <v>8.6848573300873505E-2</v>
       </c>
       <c r="D164">
-        <v>88801.9651430667</v>
+        <v>86139.156139978804</v>
       </c>
       <c r="E164">
-        <v>74691.039957289802</v>
+        <v>72345.415494311106</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>0.540753880939431</v>
+        <v>1.3332047102602</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -2999,16 +3005,16 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>14110.3844318959</v>
+        <v>13792.4074409574</v>
       </c>
       <c r="K164">
         <v>0</v>
       </c>
       <c r="L164">
-        <v>0.20350992554188099</v>
+        <v>0.150314018760944</v>
       </c>
       <c r="M164">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -3019,19 +3025,19 @@
         <v>3.5496666666666599</v>
       </c>
       <c r="C165">
-        <v>8.5099870471737296E-2</v>
+        <v>8.8125758202357005E-2</v>
       </c>
       <c r="D165">
-        <v>91288.141912037303</v>
+        <v>88550.582107419206</v>
       </c>
       <c r="E165">
-        <v>76758.982536639101</v>
+        <v>74347.778970316795</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>0.71208295506417396</v>
+        <v>1.7538666875695901</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -3040,16 +3046,16 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <v>14528.447292442999</v>
+        <v>14201.0492704148</v>
       </c>
       <c r="K165">
         <v>0</v>
       </c>
       <c r="L165">
-        <v>0.20341310604259299</v>
+        <v>0.15014228098846999</v>
       </c>
       <c r="M165">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -3060,19 +3066,19 @@
         <v>3.60111111111111</v>
       </c>
       <c r="C166">
-        <v>8.6333201927849504E-2</v>
+        <v>8.9402943103840393E-2</v>
       </c>
       <c r="D166">
-        <v>93806.8679105599</v>
+        <v>90993.634923601203</v>
       </c>
       <c r="E166">
-        <v>78853.323939240698</v>
+        <v>76375.688113516298</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>0.93071087578848499</v>
+        <v>2.2901360598902798</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -3081,16 +3087,16 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>14952.613260443301</v>
+        <v>14615.6566740249</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
-        <v>0.203317977007546</v>
+        <v>0.14997351873831199</v>
       </c>
       <c r="M166">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -3101,19 +3107,19 @@
         <v>3.65255555555555</v>
       </c>
       <c r="C167">
-        <v>8.7566533383961601E-2</v>
+        <v>9.0680128005323796E-2</v>
       </c>
       <c r="D167">
-        <v>96358.110302215893</v>
+        <v>93468.298945586503</v>
       </c>
       <c r="E167">
-        <v>80974.020194342302</v>
+        <v>78429.100205004506</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>1.20777197661267</v>
+        <v>2.96908879433516</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -3122,16 +3128,16 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>15382.8823358969</v>
+        <v>15036.2296517877</v>
       </c>
       <c r="K167">
         <v>0</v>
       </c>
       <c r="L167">
-        <v>0.20322448508472901</v>
+        <v>0.14980763853943099</v>
       </c>
       <c r="M167">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.3">
@@ -3142,19 +3148,19 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="C168">
-        <v>8.8799864840073697E-2</v>
+        <v>9.1957312906807295E-2</v>
       </c>
       <c r="D168">
-        <v>98941.839143048695</v>
+        <v>95974.564466474796</v>
       </c>
       <c r="E168">
-        <v>83121.0280616706</v>
+        <v>80507.973235962694</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
-        <v>1.5565625743660101</v>
+        <v>3.8230268088573398</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -3163,16 +3169,16 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <v>15819.2545188037</v>
+        <v>15462.768203703101</v>
       </c>
       <c r="K168">
         <v>0</v>
       </c>
       <c r="L168">
-        <v>0.20313257933328699</v>
+        <v>0.14964455113064201</v>
       </c>
       <c r="M168">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -3183,19 +3189,19 @@
         <v>3.7554444444444401</v>
       </c>
       <c r="C169">
-        <v>9.0033196296185905E-2</v>
+        <v>9.3234497808290698E-2</v>
       </c>
       <c r="D169">
-        <v>101558.027686185</v>
+        <v>98512.428477860594</v>
       </c>
       <c r="E169">
-        <v>85294.305009177595</v>
+        <v>82612.265886020105</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169">
-        <v>1.9928678443438801</v>
+        <v>4.8902620692529704</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -3204,16 +3210,16 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>16261.7298091638</v>
+        <v>15895.2723297712</v>
       </c>
       <c r="K169">
         <v>0</v>
       </c>
       <c r="L169">
-        <v>0.20304221108265799</v>
+        <v>0.149484171215336</v>
       </c>
       <c r="M169">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.3">
@@ -3224,19 +3230,19 @@
         <v>3.8068888888888801</v>
       </c>
       <c r="C170">
-        <v>9.1266527752298002E-2</v>
+        <v>9.45116827097741E-2</v>
       </c>
       <c r="D170">
-        <v>104206.652721377</v>
+        <v>101081.895513706</v>
       </c>
       <c r="E170">
-        <v>87493.809191763998</v>
+        <v>84741.937502562796</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>2.5353226366007098</v>
+        <v>6.2159811519050203</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -3245,16 +3251,16 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>16710.308206977101</v>
+        <v>16333.742029992</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
       <c r="L170">
-        <v>0.20295333380174899</v>
+        <v>0.149326417233654</v>
       </c>
       <c r="M170">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
@@ -3265,19 +3271,19 @@
         <v>3.8583333333333298</v>
       </c>
       <c r="C171">
-        <v>9.2499859208410098E-2</v>
+        <v>9.57888676112576E-2</v>
       </c>
       <c r="D171">
-        <v>106887.694950882</v>
+        <v>103682.978578968</v>
       </c>
       <c r="E171">
-        <v>89719.4994309225</v>
+        <v>86896.948080941394</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>3.20580771611283</v>
+        <v>7.8531936617506304</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -3286,16 +3292,16 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>17164.989712243601</v>
+        <v>16778.177304365399</v>
       </c>
       <c r="K171">
         <v>0</v>
       </c>
       <c r="L171">
-        <v>0.20286590297731999</v>
+        <v>0.14917121115062901</v>
       </c>
       <c r="M171">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -3306,19 +3312,19 @@
         <v>3.9097777777777698</v>
       </c>
       <c r="C172">
-        <v>9.3733190664522306E-2</v>
+        <v>9.7066052512741002E-2</v>
       </c>
       <c r="D172">
-        <v>109601.13940297801</v>
+        <v>106315.70016594999</v>
       </c>
       <c r="E172">
-        <v>91971.335195251901</v>
+        <v>89077.258245521807</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>4.0298827628283496</v>
+        <v>9.8637675366662805</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -3327,16 +3333,16 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>17625.7743249634</v>
+        <v>17228.578152891401</v>
       </c>
       <c r="K172">
         <v>0</v>
       </c>
       <c r="L172">
-        <v>0.202779876000791</v>
+        <v>0.14901847825900399</v>
       </c>
       <c r="M172">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
@@ -3347,19 +3353,19 @@
         <v>3.96122222222222</v>
       </c>
       <c r="C173">
-        <v>9.4966522120634403E-2</v>
+        <v>9.8343237414224405E-2</v>
       </c>
       <c r="D173">
-        <v>112346.975884231</v>
+        <v>108980.093360978</v>
       </c>
       <c r="E173">
-        <v>94249.276581791302</v>
+        <v>91282.829231536307</v>
       </c>
       <c r="F173">
         <v>0</v>
       </c>
       <c r="G173">
-        <v>5.0372573036964097</v>
+        <v>12.3195538715271</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -3368,16 +3374,16 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>18092.662045136502</v>
+        <v>17684.9445755702</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
       <c r="L173">
-        <v>0.20269521206281199</v>
+        <v>0.148868146995523</v>
       </c>
       <c r="M173">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.3">
@@ -3388,19 +3394,19 @@
         <v>4.0126666666666599</v>
       </c>
       <c r="C174">
-        <v>9.61998535767465E-2</v>
+        <v>9.9620422315707904E-2</v>
       </c>
       <c r="D174">
-        <v>115125.199471463</v>
+        <v>111676.203043551</v>
       </c>
       <c r="E174">
-        <v>96553.284298131097</v>
+        <v>93513.6228676881</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>6.2623005693680103</v>
+        <v>15.303603461910299</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -3409,16 +3415,16 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <v>18565.652872762701</v>
+        <v>18147.276572401599</v>
       </c>
       <c r="K174">
         <v>0</v>
       </c>
       <c r="L174">
-        <v>0.20261187205495201</v>
+        <v>0.148720148769595</v>
       </c>
       <c r="M174">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -3429,19 +3435,19 @@
         <v>4.0641111111111101</v>
       </c>
       <c r="C175">
-        <v>9.7433185032858693E-2</v>
+        <v>0.100897607217191</v>
       </c>
       <c r="D175">
-        <v>117935.811044175</v>
+        <v>114404.087179661</v>
       </c>
       <c r="E175">
-        <v>98883.319645258001</v>
+        <v>95769.601559471994</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>7.7445910753101597</v>
+        <v>18.9114768034637</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -3450,16 +3456,16 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>19044.746807842199</v>
+        <v>18615.5741433857</v>
       </c>
       <c r="K175">
         <v>0</v>
       </c>
       <c r="L175">
-        <v>0.20252981847795201</v>
+        <v>0.14857441780338401</v>
       </c>
       <c r="M175">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -3470,19 +3476,19 @@
         <v>4.1155555555555496</v>
       </c>
       <c r="C176">
-        <v>9.8666516488970804E-2</v>
+        <v>0.102174792118674</v>
       </c>
       <c r="D176">
-        <v>120778.817857993</v>
+        <v>117163.818210485</v>
       </c>
       <c r="E176">
-        <v>101239.34450109499</v>
+        <v>98050.728273169196</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>9.5295065226423006</v>
+        <v>23.252648793348602</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -3491,16 +3497,16 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>19529.943850374999</v>
+        <v>19089.837288522402</v>
       </c>
       <c r="K176">
         <v>0</v>
       </c>
       <c r="L176">
-        <v>0.20244901535601401</v>
+        <v>0.14843089098239601</v>
       </c>
       <c r="M176">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
@@ -3511,19 +3517,19 @@
         <v>4.16699999999999</v>
       </c>
       <c r="C177">
-        <v>9.9899847945082901E-2</v>
+        <v>0.103451977020158</v>
       </c>
       <c r="D177">
-        <v>123654.234159464</v>
+        <v>119955.484537166</v>
       </c>
       <c r="E177">
-        <v>103621.321304702</v>
+        <v>100356.966520484</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177">
-        <v>11.668854400251099</v>
+        <v>28.452008870081499</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -3532,16 +3538,16 @@
         <v>0</v>
       </c>
       <c r="J177">
-        <v>20021.244000360999</v>
+        <v>19570.066007811802</v>
       </c>
       <c r="K177">
         <v>0</v>
       </c>
       <c r="L177">
-        <v>0.20236942815667699</v>
+        <v>0.14828950771577001</v>
       </c>
       <c r="M177">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
@@ -3552,19 +3558,19 @@
         <v>4.2184444444444402</v>
       </c>
       <c r="C178">
-        <v>0.101133179401195</v>
+        <v>0.104729161921641</v>
       </c>
       <c r="D178">
-        <v>126562.081842347</v>
+        <v>122779.192101844</v>
       </c>
       <c r="E178">
-        <v>106029.213041098</v>
+        <v>102688.28034378801</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
       <c r="G178">
-        <v>14.2215434488886</v>
+        <v>34.651456802864402</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -3573,16 +3579,16 @@
         <v>0</v>
       </c>
       <c r="J178">
-        <v>20518.647257800199</v>
+        <v>20056.260301253798</v>
       </c>
       <c r="K178">
         <v>0</v>
       </c>
       <c r="L178">
-        <v>0.20229102371583199</v>
+        <v>0.14815020980552601</v>
       </c>
       <c r="M178">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
@@ -3593,19 +3599,19 @@
         <v>4.2698888888888797</v>
       </c>
       <c r="C179">
-        <v>0.102366510857307</v>
+        <v>0.106006346823125</v>
       </c>
       <c r="D179">
-        <v>129502.391145289</v>
+        <v>125635.066064592</v>
       </c>
       <c r="E179">
-        <v>108462.983226674</v>
+        <v>105044.634301937</v>
       </c>
       <c r="F179">
         <v>0</v>
       </c>
       <c r="G179">
-        <v>17.2542959222544</v>
+        <v>42.011593806422397</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -3614,16 +3620,16 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>21022.153622692698</v>
+        <v>20548.420168848501</v>
       </c>
       <c r="K179">
         <v>0</v>
       </c>
       <c r="L179">
-        <v>0.202213770167505</v>
+        <v>0.14801294132409701</v>
       </c>
       <c r="M179">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
@@ -3634,19 +3640,19 @@
         <v>4.3213333333333299</v>
       </c>
       <c r="C180">
-        <v>0.103599842313419</v>
+        <v>0.107283531724608</v>
       </c>
       <c r="D180">
-        <v>132475.20139056799</v>
+        <v>128523.25257535699</v>
       </c>
       <c r="E180">
-        <v>110922.595895178</v>
+        <v>107425.993456643</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>20.8424003517319</v>
+        <v>50.713508117763702</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -3655,16 +3661,16 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>21531.763095038401</v>
+        <v>21046.545610595898</v>
       </c>
       <c r="K180">
         <v>0</v>
       </c>
       <c r="L180">
-        <v>0.20213763687803901</v>
+        <v>0.14787764849951801</v>
       </c>
       <c r="M180">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
@@ -3675,19 +3681,19 @@
         <v>4.3727777777777703</v>
       </c>
       <c r="C181">
-        <v>0.104833173769531</v>
+        <v>0.108560716626091</v>
       </c>
       <c r="D181">
-        <v>135480.56176335001</v>
+        <v>131443.92063948099</v>
       </c>
       <c r="E181">
-        <v>113408.01558422</v>
+        <v>109832.323359353</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>25.0705042926805</v>
+        <v>60.960653632251997</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -3696,16 +3702,16 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>22047.475674837398</v>
+        <v>21550.636626496002</v>
       </c>
       <c r="K181">
         <v>0</v>
       </c>
       <c r="L181">
-        <v>0.20206259438435301</v>
+        <v>0.14774427960772599</v>
       </c>
       <c r="M181">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -3716,19 +3722,19 @@
         <v>4.4242222222222196</v>
       </c>
       <c r="C182">
-        <v>0.106066505225643</v>
+        <v>0.109837901527575</v>
       </c>
       <c r="D182">
-        <v>138518.53213068799</v>
+        <v>134397.264074846</v>
       </c>
       <c r="E182">
-        <v>115919.207322295</v>
+        <v>112263.59003863401</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>30.033446303079501</v>
+        <v>72.980819662914001</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -3737,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>22569.2913620896</v>
+        <v>22060.693216548701</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
       <c r="L182">
-        <v>0.201988614335991</v>
+        <v>0.14761278487142701</v>
       </c>
       <c r="M182">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
@@ -3757,19 +3763,19 @@
         <v>4.47566666666666</v>
       </c>
       <c r="C183">
-        <v>0.107299836681755</v>
+        <v>0.111115086429058</v>
       </c>
       <c r="D183">
-        <v>141589.18389926499</v>
+        <v>137383.50355813801</v>
       </c>
       <c r="E183">
-        <v>118456.136616288</v>
+        <v>114719.75998802</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>35.837126181905198</v>
+        <v>87.028189363677896</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -3778,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="J183">
-        <v>23097.210156795001</v>
+        <v>22576.715380754002</v>
       </c>
       <c r="K183">
         <v>0</v>
       </c>
       <c r="L183">
-        <v>0.20191566944066899</v>
+        <v>0.14748311636508299</v>
       </c>
       <c r="M183">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
@@ -3798,19 +3804,19 @@
         <v>4.5271111111111102</v>
       </c>
       <c r="C184">
-        <v>0.10853316813786699</v>
+        <v>0.112392271330542</v>
       </c>
       <c r="D184">
-        <v>144692.60091066101</v>
+        <v>140402.88875727</v>
       </c>
       <c r="E184">
-        <v>121018.76943943001</v>
+        <v>117200.80015431</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>42.599412276771098</v>
+        <v>103.385483848633</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -3819,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>23631.232058953799</v>
+        <v>23098.703119112099</v>
       </c>
       <c r="K184">
         <v>0</v>
       </c>
       <c r="L184">
-        <v>0.20184373341308601</v>
+        <v>0.14735522792556699</v>
       </c>
       <c r="M184">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
@@ -3839,19 +3845,19 @@
         <v>4.5785555555555497</v>
       </c>
       <c r="C185">
-        <v>0.10976649959397999</v>
+        <v>0.113669456232025</v>
       </c>
       <c r="D185">
-        <v>147828.88037273099</v>
+        <v>143455.700546457</v>
       </c>
       <c r="E185">
-        <v>123607.07221970501</v>
+        <v>119706.677926285</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>50.451084459835997</v>
+        <v>122.366188549493</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -3860,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="J185">
-        <v>24171.3570685657</v>
+        <v>23626.6564316228</v>
       </c>
       <c r="K185">
         <v>0</v>
       </c>
       <c r="L185">
-        <v>0.20177278092676301</v>
+        <v>0.14722907506809499</v>
       </c>
       <c r="M185">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
@@ -3880,19 +3886,19 @@
         <v>4.63</v>
       </c>
       <c r="C186">
-        <v>0.11099983105009199</v>
+        <v>0.114946641133509</v>
       </c>
       <c r="D186">
-        <v>150998.13382546199</v>
+        <v>146542.25330001401</v>
       </c>
       <c r="E186">
-        <v>126221.011828662</v>
+        <v>122237.361123842</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>59.536811169402398</v>
+        <v>144.316857885899</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -3901,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>24717.585185630898</v>
+        <v>24160.575318286199</v>
       </c>
       <c r="K186">
         <v>0</v>
       </c>
       <c r="L186">
-        <v>0.2017027875687</v>
+        <v>0.147104614907063</v>
       </c>
       <c r="M186">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
@@ -3921,19 +3927,19 @@
         <v>4.6814444444444403</v>
       </c>
       <c r="C187">
-        <v>0.11223316250620401</v>
+        <v>0.116223826034992</v>
       </c>
       <c r="D187">
-        <v>154200.48813950099</v>
+        <v>149662.89726048399</v>
       </c>
       <c r="E187">
-        <v>128860.555570628</v>
+        <v>124792.817987501</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>70.0161587233776</v>
+        <v>169.619493881301</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -3942,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>25269.916410149301</v>
+        <v>24700.459779102199</v>
       </c>
       <c r="K187">
         <v>0</v>
       </c>
       <c r="L187">
-        <v>0.201633729796655</v>
+        <v>0.146981806081452</v>
       </c>
       <c r="M187">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
@@ -3962,19 +3968,19 @@
         <v>4.7328888888888798</v>
       </c>
       <c r="C188">
-        <v>0.11346649396231601</v>
+        <v>0.117501010936476</v>
       </c>
       <c r="D188">
-        <v>157436.08654535699</v>
+        <v>152818.02097630399</v>
       </c>
       <c r="E188">
-        <v>131525.67117230501</v>
+        <v>127373.01716829</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>82.064630931213202</v>
+        <v>198.69399394380599</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -3983,16 +3989,16 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <v>25828.3507421209</v>
+        <v>25246.309814070901</v>
       </c>
       <c r="K188">
         <v>0</v>
       </c>
       <c r="L188">
-        <v>0.201565584898864</v>
+        <v>0.14686060868450099</v>
       </c>
       <c r="M188">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
@@ -4003,19 +4009,19 @@
         <v>4.78433333333333</v>
       </c>
       <c r="C189">
-        <v>0.11469982541842801</v>
+        <v>0.118778195837959</v>
       </c>
       <c r="D189">
-        <v>160705.08969113301</v>
+        <v>156008.05380381999</v>
       </c>
       <c r="E189">
-        <v>134216.326772723</v>
+        <v>129977.92771797899</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>95.874736864057795</v>
+        <v>232.000662649021</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -4024,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>26392.888181545899</v>
+        <v>25798.125423192199</v>
       </c>
       <c r="K189">
         <v>0</v>
       </c>
       <c r="L189">
-        <v>0.20149833095605199</v>
+        <v>0.146740984197339</v>
       </c>
       <c r="M189">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
@@ -4044,19 +4050,19 @@
         <v>4.8357777777777704</v>
       </c>
       <c r="C190">
-        <v>0.11593315687454001</v>
+        <v>0.120055380739442</v>
       </c>
       <c r="D190">
-        <v>164007.67672645199</v>
+        <v>159233.46846812801</v>
       </c>
       <c r="E190">
-        <v>136932.490913538</v>
+        <v>132607.51907964901</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>111.65708448968699</v>
+        <v>270.042782012575</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -4065,16 +4071,16 @@
         <v>0</v>
       </c>
       <c r="J190">
-        <v>26963.528728424</v>
+        <v>26355.9066064662</v>
       </c>
       <c r="K190">
         <v>0</v>
       </c>
       <c r="L190">
-        <v>0.20143194680555701</v>
+        <v>0.146622895426336</v>
       </c>
       <c r="M190">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
@@ -4085,19 +4091,19 @@
         <v>4.8872222222222197</v>
       </c>
       <c r="C191">
-        <v>0.117166488330652</v>
+        <v>0.121332565640926</v>
       </c>
       <c r="D191">
-        <v>167344.04641016101</v>
+        <v>162494.7836769</v>
       </c>
       <c r="E191">
-        <v>139674.13252966499</v>
+        <v>135261.76107858101</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>129.64149773999199</v>
+        <v>313.369234425456</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -4106,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>27540.2723827554</v>
+        <v>26919.6533638929</v>
       </c>
       <c r="K191">
         <v>0</v>
       </c>
       <c r="L191">
-        <v>0.20136641200745101</v>
+        <v>0.146506306443909</v>
       </c>
       <c r="M191">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
@@ -4126,19 +4132,19 @@
         <v>4.9386666666666601</v>
       </c>
       <c r="C192">
-        <v>0.118399819786765</v>
+        <v>0.122609750542409</v>
       </c>
       <c r="D192">
-        <v>170714.41823921699</v>
+        <v>165792.566781075</v>
       </c>
       <c r="E192">
-        <v>142441.220940222</v>
+        <v>137940.62391345599</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>150.07815445501299</v>
+        <v>362.57717214648801</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -4147,16 +4153,16 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>28123.11914454</v>
+        <v>27489.365695472199</v>
       </c>
       <c r="K192">
         <v>0</v>
       </c>
       <c r="L192">
-        <v>0.201301706812517</v>
+        <v>0.14639118253257299</v>
       </c>
       <c r="M192">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
@@ -4167,19 +4173,19 @@
         <v>4.9901111111111103</v>
       </c>
       <c r="C193">
-        <v>0.119633151242877</v>
+        <v>0.123886935443893</v>
       </c>
       <c r="D193">
-        <v>174119.03359609001</v>
+        <v>169127.43647604901</v>
       </c>
       <c r="E193">
-        <v>145233.72583977299</v>
+        <v>140644.07814784101</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>173.23874253913999</v>
+        <v>418.31472700442902</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -4188,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>28712.069013777898</v>
+        <v>28065.043601204299</v>
       </c>
       <c r="K193">
         <v>0</v>
       </c>
       <c r="L193">
-        <v>0.20123781213195599</v>
+        <v>0.146277490132011</v>
       </c>
       <c r="M193">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
@@ -4208,19 +4214,19 @@
         <v>5.0415555555555498</v>
       </c>
       <c r="C194">
-        <v>0.120866482698989</v>
+        <v>0.125164120345376</v>
       </c>
       <c r="D194">
-        <v>177558.15691191301</v>
+        <v>172500.06553680799</v>
       </c>
       <c r="E194">
-        <v>148051.617289872</v>
+        <v>143372.09470196199</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>199.41763157238</v>
+        <v>481.283753757493</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -4229,16 +4235,16 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>29307.121990469001</v>
+        <v>28646.687081088901</v>
       </c>
       <c r="K194">
         <v>0</v>
       </c>
       <c r="L194">
-        <v>0.20117470950873401</v>
+        <v>0.14616519678899101</v>
       </c>
       <c r="M194">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
@@ -4249,19 +4255,19 @@
         <v>5.093</v>
       </c>
       <c r="C195">
-        <v>0.122099814155101</v>
+        <v>0.12644130524686001</v>
       </c>
       <c r="D195">
-        <v>181032.07684251899</v>
+        <v>175911.18358026099</v>
       </c>
       <c r="E195">
-        <v>150894.865710863</v>
+        <v>146124.64484474401</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>228.93305704269201</v>
+        <v>552.24260039075796</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -4270,16 +4276,16 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>29908.278074613401</v>
+        <v>29234.2961351263</v>
       </c>
       <c r="K195">
         <v>0</v>
       </c>
       <c r="L195">
-        <v>0.201112381090435</v>
+        <v>0.14605427110993099</v>
       </c>
       <c r="M195">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
@@ -4290,19 +4296,19 @@
         <v>5.1444444444444404</v>
       </c>
       <c r="C196">
-        <v>0.123333145611213</v>
+        <v>0.12771849014834299</v>
       </c>
       <c r="D196">
-        <v>184541.10745447999</v>
+        <v>179361.579847922</v>
       </c>
       <c r="E196">
-        <v>153763.44187396401</v>
+        <v>148901.70018610399</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>262.12831430418601</v>
+        <v>632.008898501972</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -4311,16 +4317,16 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>30515.537266210998</v>
+        <v>29827.870763316201</v>
       </c>
       <c r="K196">
         <v>0</v>
       </c>
       <c r="L196">
-        <v>0.20105080960355701</v>
+        <v>0.14594468271595401</v>
       </c>
       <c r="M196">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
@@ -4331,19 +4337,19 @@
         <v>5.1958888888888799</v>
       </c>
       <c r="C197">
-        <v>0.124566477067325</v>
+        <v>0.12899567504982601</v>
       </c>
       <c r="D197">
-        <v>188085.58941817499</v>
+        <v>182852.10600198901</v>
       </c>
       <c r="E197">
-        <v>156657.316893593</v>
+        <v>151703.232669497</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>299.37295932045902</v>
+        <v>721.46236683289305</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -4352,16 +4358,16 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>31128.8995652618</v>
+        <v>30427.410965658899</v>
       </c>
       <c r="K197">
         <v>0</v>
       </c>
       <c r="L197">
-        <v>0.20098997832913801</v>
+        <v>0.14583640220028601</v>
       </c>
       <c r="M197">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
@@ -4372,19 +4378,19 @@
         <v>5.2473333333333301</v>
       </c>
       <c r="C198">
-        <v>0.125799808523437</v>
+        <v>0.13027285995130999</v>
       </c>
       <c r="D198">
-        <v>191665.89120492499</v>
+        <v>186383.67892779101</v>
       </c>
       <c r="E198">
-        <v>159576.46221993701</v>
+        <v>154529.21456468999</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>341.06401322204698</v>
+        <v>821.54762094621299</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -4393,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>31748.364971765899</v>
+        <v>31032.916742154201</v>
       </c>
       <c r="K198">
         <v>0</v>
       </c>
       <c r="L198">
-        <v>0.200929871079641</v>
+        <v>0.145729401087834</v>
       </c>
       <c r="M198">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
@@ -4413,19 +4419,19 @@
         <v>5.2987777777777696</v>
       </c>
       <c r="C199">
-        <v>0.12703313997954899</v>
+        <v>0.13155004485279301</v>
       </c>
       <c r="D199">
-        <v>195282.41028517301</v>
+        <v>189957.283535597</v>
       </c>
       <c r="E199">
-        <v>162520.849631758</v>
+        <v>157379.61846076901</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>387.62716769176501</v>
+        <v>933.27698202585498</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -4434,16 +4440,16 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <v>32373.933485723199</v>
+        <v>31644.388092802201</v>
       </c>
       <c r="K199">
         <v>0</v>
       </c>
       <c r="L199">
-        <v>0.200870472177022</v>
+        <v>0.14562365179683601</v>
       </c>
       <c r="M199">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
@@ -4454,19 +4460,19 @@
         <v>5.3502222222222198</v>
       </c>
       <c r="C200">
-        <v>0.128266471435662</v>
+        <v>0.13282722975427699</v>
       </c>
       <c r="D200">
-        <v>198935.57432474601</v>
+        <v>193573.975554751</v>
       </c>
       <c r="E200">
-        <v>165490.45122942101</v>
+        <v>160254.417259359</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>439.51798819075299</v>
+        <v>1057.73327778929</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -4475,16 +4481,16 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <v>33005.605107133801</v>
+        <v>32261.8250176029</v>
       </c>
       <c r="K200">
         <v>0</v>
       </c>
       <c r="L200">
-        <v>0.20081176643189999</v>
+        <v>0.14551912760244101</v>
       </c>
       <c r="M200">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -4495,19 +4501,19 @@
         <v>5.4016666666666602</v>
       </c>
       <c r="C201">
-        <v>0.12949980289177401</v>
+        <v>0.13410441465576001</v>
       </c>
       <c r="D201">
-        <v>202625.84237618401</v>
+        <v>197234.88431315601</v>
       </c>
       <c r="E201">
-        <v>168485.23942813501</v>
+        <v>163153.58416805699</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>497.22311205130802</v>
+        <v>1196.0726285424</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -4516,16 +4522,16 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>33643.379835997599</v>
+        <v>32885.227516556202</v>
       </c>
       <c r="K201">
         <v>0</v>
       </c>
       <c r="L201">
-        <v>0.200753739123781</v>
+        <v>0.14541580260210299</v>
       </c>
       <c r="M201">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
@@ -4536,19 +4542,19 @@
         <v>5.4531111111111104</v>
       </c>
       <c r="C202">
-        <v>0.130733134347886</v>
+        <v>0.13538159955724399</v>
       </c>
       <c r="D202">
-        <v>206353.70606220001</v>
+        <v>200941.21549519899</v>
       </c>
       <c r="E202">
-        <v>171505.186951396</v>
+        <v>166077.09269405599</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>561.26143848889001</v>
+        <v>1349.52721148044</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -4557,16 +4563,16 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <v>34287.257672314598</v>
+        <v>33514.595589662102</v>
       </c>
       <c r="K202">
         <v>0</v>
       </c>
       <c r="L202">
-        <v>0.20069637598225301</v>
+        <v>0.14531365168270199</v>
       </c>
       <c r="M202">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
@@ -4577,19 +4583,19 @@
         <v>5.5045555555555499</v>
       </c>
       <c r="C203">
-        <v>0.13196646580399801</v>
+        <v>0.13665878445872701</v>
       </c>
       <c r="D203">
-        <v>210119.69074834901</v>
+        <v>204694.25387134199</v>
       </c>
       <c r="E203">
-        <v>174550.26682463899</v>
+        <v>169024.91663797299</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>632.18530762503804</v>
+        <v>1519.4079964487801</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -4598,16 +4604,16 @@
         <v>0</v>
       </c>
       <c r="J203">
-        <v>34937.238616084898</v>
+        <v>34149.929236920798</v>
       </c>
       <c r="K203">
         <v>0</v>
       </c>
       <c r="L203">
-        <v>0.200639663169111</v>
+        <v>0.14521265048926299</v>
       </c>
       <c r="M203">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -4618,19 +4624,19 @@
         <v>5.556</v>
       </c>
       <c r="C204">
-        <v>0.13319979726011</v>
+        <v>0.13793596936020999</v>
       </c>
       <c r="D204">
-        <v>213924.35670203701</v>
+        <v>208495.36599270601</v>
       </c>
       <c r="E204">
-        <v>177620.45236906499</v>
+        <v>171997.03008784799</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
       <c r="G204">
-        <v>710.58166566393595</v>
+        <v>1707.1074465261399</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -4639,16 +4645,16 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <v>35593.322667308501</v>
+        <v>34791.228458332102</v>
       </c>
       <c r="K204">
         <v>0</v>
       </c>
       <c r="L204">
-        <v>0.20058358726134901</v>
+        <v>0.14511277539520401</v>
       </c>
       <c r="M204">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
@@ -4659,19 +4665,19 @@
         <v>5.6074444444444396</v>
       </c>
       <c r="C205">
-        <v>0.13443312871622201</v>
+        <v>0.13921315426169401</v>
       </c>
       <c r="D205">
-        <v>217768.30023507201</v>
+        <v>212346.0028442</v>
       </c>
       <c r="E205">
-        <v>180715.717195659</v>
+        <v>174993.40741333499</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>797.07321342697003</v>
+        <v>1914.1021769696399</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -4680,16 +4686,16 @@
         <v>0</v>
       </c>
       <c r="J205">
-        <v>36255.509825985202</v>
+        <v>35438.493253895998</v>
       </c>
       <c r="K205">
         <v>0</v>
       </c>
       <c r="L205">
-        <v>0.20052813523497401</v>
+        <v>0.145014003474012</v>
       </c>
       <c r="M205">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
@@ -4700,19 +4706,19 @@
         <v>5.65888888888888</v>
       </c>
       <c r="C206">
-        <v>0.135666460172334</v>
+        <v>0.14049033916317699</v>
       </c>
       <c r="D206">
-        <v>221652.15482702199</v>
+        <v>216247.70244988101</v>
       </c>
       <c r="E206">
-        <v>183836.035199387</v>
+        <v>178014.02326004801</v>
       </c>
       <c r="F206">
         <v>0</v>
       </c>
       <c r="G206">
-        <v>892.31953552001505</v>
+        <v>2141.95556622001</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -4721,16 +4727,16 @@
         <v>0</v>
       </c>
       <c r="J206">
-        <v>36923.8000921153</v>
+        <v>36091.723623612699</v>
       </c>
       <c r="K206">
         <v>0</v>
       </c>
       <c r="L206">
-        <v>0.200473294449596</v>
+        <v>0.14491631247226799</v>
       </c>
       <c r="M206">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
@@ -4741,19 +4747,19 @@
         <v>5.7103333333333302</v>
       </c>
       <c r="C207">
-        <v>0.13689979162844701</v>
+        <v>0.141767524064661</v>
       </c>
       <c r="D207">
-        <v>225576.59222673401</v>
+        <v>220202.09242432099</v>
       </c>
       <c r="E207">
-        <v>186981.38055354901</v>
+        <v>181058.85254408701</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207">
-        <v>997.01820748670002</v>
+        <v>2392.3203127526199</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -4762,16 +4768,16 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>37598.193465698503</v>
+        <v>36750.919567482</v>
       </c>
       <c r="K207">
         <v>0</v>
       </c>
       <c r="L207">
-        <v>0.20041905263373999</v>
+        <v>0.14481968078395399</v>
       </c>
       <c r="M207">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
@@ -4782,19 +4788,19 @@
         <v>5.7617777777777697</v>
       </c>
       <c r="C208">
-        <v>0.138133123084559</v>
+        <v>0.14304470896614399</v>
       </c>
       <c r="D208">
-        <v>229542.32352942901</v>
+        <v>224210.89246380201</v>
       </c>
       <c r="E208">
-        <v>190151.72770430401</v>
+        <v>184127.870446705</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
       <c r="G208">
-        <v>1111.90587838999</v>
+        <v>2666.9409315934899</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -4803,16 +4809,16 @@
         <v>0</v>
       </c>
       <c r="J208">
-        <v>38278.689946735001</v>
+        <v>37416.081085503902</v>
       </c>
       <c r="K208">
         <v>0</v>
       </c>
       <c r="L208">
-        <v>0.200365397870855</v>
+        <v>0.144724087425953</v>
       </c>
       <c r="M208">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
@@ -4823,19 +4829,19 @@
         <v>5.8132222222222198</v>
       </c>
       <c r="C209">
-        <v>0.13936645454067101</v>
+        <v>0.144321893867628</v>
       </c>
       <c r="D209">
-        <v>233550.10022694801</v>
+        <v>228275.916771296</v>
       </c>
       <c r="E209">
-        <v>193347.051365352</v>
+        <v>187221.05240913999</v>
       </c>
       <c r="F209">
         <v>0</v>
       </c>
       <c r="G209">
-        <v>1237.7593263712799</v>
+        <v>2967.6561844764401</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -4844,16 +4850,16 @@
         <v>0</v>
       </c>
       <c r="J209">
-        <v>38965.289535224802</v>
+        <v>38087.208177678498</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
       <c r="L209">
-        <v>0.20031231858597401</v>
+        <v>0.14462951201469801</v>
       </c>
       <c r="M209">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
@@ -4864,19 +4870,19 @@
         <v>5.8646666666666603</v>
       </c>
       <c r="C210">
-        <v>0.14059978599678299</v>
+        <v>0.14559907876911099</v>
       </c>
       <c r="D210">
-        <v>237600.71522879199</v>
+        <v>232399.07640982201</v>
       </c>
       <c r="E210">
-        <v>196567.326512759</v>
+        <v>190338.374127591</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210">
-        <v>1375.39648486487</v>
+        <v>3296.4014382253299</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -4885,16 +4891,16 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <v>39657.992231167802</v>
+        <v>38764.300844005797</v>
       </c>
       <c r="K210">
         <v>0</v>
       </c>
       <c r="L210">
-        <v>0.20025980353298101</v>
+        <v>0.14453593474388099</v>
       </c>
       <c r="M210">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
@@ -4905,19 +4911,19 @@
         <v>5.9161111111111104</v>
       </c>
       <c r="C211">
-        <v>0.14183311745289501</v>
+        <v>0.146876263670595</v>
       </c>
       <c r="D211">
-        <v>241695.00385178701</v>
+        <v>236582.381580032</v>
       </c>
       <c r="E211">
-        <v>199812.528379931</v>
+        <v>193479.81154832299</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211">
-        <v>1525.6774372913201</v>
+        <v>3655.21094722322</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -4926,16 +4932,16 @@
         <v>0</v>
       </c>
       <c r="J211">
-        <v>40356.798034564003</v>
+        <v>39447.359084485703</v>
       </c>
       <c r="K211">
         <v>0</v>
       </c>
       <c r="L211">
-        <v>0.20020784178246701</v>
+        <v>0.14444333636319101</v>
       </c>
       <c r="M211">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
@@ -4946,19 +4952,19 @@
         <v>5.96755555555555</v>
       </c>
       <c r="C212">
-        <v>0.14306644890900699</v>
+        <v>0.14815344857207799</v>
       </c>
       <c r="D212">
-        <v>245833.844776324</v>
+        <v>240827.94381949501</v>
       </c>
       <c r="E212">
-        <v>203082.63245273099</v>
+        <v>196645.34086292901</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212">
-        <v>1689.5053781791801</v>
+        <v>4046.2200574475901</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -4967,16 +4973,16 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>41061.706945413498</v>
+        <v>40136.382899118398</v>
       </c>
       <c r="K212">
         <v>0</v>
       </c>
       <c r="L212">
-        <v>0.20015642271013401</v>
+        <v>0.14435169815801099</v>
       </c>
       <c r="M212">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -4987,19 +4993,19 @@
         <v>6.0190000000000001</v>
       </c>
       <c r="C213">
-        <v>0.14429978036511901</v>
+        <v>0.149430633473561</v>
       </c>
       <c r="D213">
-        <v>250018.16096715399</v>
+        <v>245137.978121928</v>
       </c>
       <c r="E213">
-        <v>206377.614464721</v>
+        <v>199834.938503699</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213">
-        <v>1867.82753871658</v>
+        <v>4471.6673303259704</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -5008,16 +5014,16 @@
         <v>0</v>
       </c>
       <c r="J213">
-        <v>41772.718963716201</v>
+        <v>40831.372287903599</v>
       </c>
       <c r="K213">
         <v>0</v>
       </c>
       <c r="L213">
-        <v>0.200105535985723</v>
+        <v>0.14426100193001501</v>
       </c>
       <c r="M213">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
@@ -5028,19 +5034,19 @@
         <v>6.0704444444444396</v>
       </c>
       <c r="C214">
-        <v>0.14553311182123199</v>
+        <v>0.15070781837504499</v>
       </c>
       <c r="D214">
-        <v>254248.92055668199</v>
+        <v>249514.804972852</v>
       </c>
       <c r="E214">
-        <v>209697.450392545</v>
+        <v>203048.58113913401</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214">
-        <v>2061.6360746646901</v>
+        <v>4933.8965828761202</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -5049,16 +5055,16 @@
         <v>0</v>
       </c>
       <c r="J214">
-        <v>42489.834089472199</v>
+        <v>41532.327250841598</v>
       </c>
       <c r="K214">
         <v>0</v>
       </c>
       <c r="L214">
-        <v>0.200055171562425</v>
+        <v>0.14417122997863999</v>
       </c>
       <c r="M214">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
@@ -5069,19 +5075,19 @@
         <v>6.1218888888888801</v>
       </c>
       <c r="C215">
-        <v>0.14676644327734401</v>
+        <v>0.151985003276528</v>
       </c>
       <c r="D215">
-        <v>258527.13768851399</v>
+        <v>253960.85229269601</v>
       </c>
       <c r="E215">
-        <v>213042.11645142801</v>
+        <v>206286.24566957299</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215">
-        <v>2271.9689144048398</v>
+        <v>5435.3588351904</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -5090,16 +5096,16 @@
         <v>0</v>
       </c>
       <c r="J215">
-        <v>43213.052322681397</v>
+        <v>42239.247787932203</v>
       </c>
       <c r="K215">
         <v>0</v>
       </c>
       <c r="L215">
-        <v>0.20000531966677301</v>
+        <v>0.144082365083367</v>
       </c>
       <c r="M215">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
@@ -5110,19 +5116,19 @@
         <v>6.1733333333333302</v>
       </c>
       <c r="C216">
-        <v>0.14799977473345599</v>
+        <v>0.15326218817801199</v>
       </c>
       <c r="D216">
-        <v>262853.87331896002</v>
+        <v>258478.65727073999</v>
       </c>
       <c r="E216">
-        <v>216411.58909079901</v>
+        <v>209547.909222936</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>2499.91056481651</v>
+        <v>5978.6141486289398</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -5131,16 +5137,16 @@
         <v>0</v>
       </c>
       <c r="J216">
-        <v>43942.373663343802</v>
+        <v>42952.133899175402</v>
       </c>
       <c r="K216">
         <v>0</v>
       </c>
       <c r="L216">
-        <v>0.19995597078896801</v>
+        <v>0.14399439048677901</v>
       </c>
       <c r="M216">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
@@ -5151,19 +5157,19 @@
         <v>6.2247777777777697</v>
       </c>
       <c r="C217">
-        <v>0.149233106189568</v>
+        <v>0.154539373079495</v>
       </c>
       <c r="D217">
-        <v>267230.235974496</v>
+        <v>263070.86806799797</v>
       </c>
       <c r="E217">
-        <v>219805.84499003401</v>
+        <v>212833.54915058301</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
       <c r="G217">
-        <v>2746.5928730022101</v>
+        <v>6566.3333328428598</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -5172,16 +5178,16 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>44677.798111459502</v>
+        <v>43670.985584571303</v>
       </c>
       <c r="K217">
         <v>0</v>
       </c>
       <c r="L217">
-        <v>0.19990711567362501</v>
+        <v>0.143907289878352</v>
       </c>
       <c r="M217">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -5192,19 +5198,19 @@
         <v>6.2762222222222199</v>
       </c>
       <c r="C218">
-        <v>0.15046643764567999</v>
+        <v>0.15581655798097899</v>
       </c>
       <c r="D218">
-        <v>271657.38246424397</v>
+        <v>267740.24537156499</v>
       </c>
       <c r="E218">
-        <v>223224.86105430301</v>
+        <v>216143.143023287</v>
       </c>
       <c r="F218">
         <v>0</v>
       </c>
       <c r="G218">
-        <v>3013.1957429121699</v>
+        <v>7201.2995041586</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -5213,16 +5219,16 @@
         <v>0</v>
       </c>
       <c r="J218">
-        <v>45419.325667028403</v>
+        <v>44395.802844119899</v>
       </c>
       <c r="K218">
         <v>0</v>
       </c>
       <c r="L218">
-        <v>0.19985874531092301</v>
+        <v>0.143821047378938</v>
       </c>
       <c r="M218">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
@@ -5233,19 +5239,19 @@
         <v>6.3276666666666603</v>
       </c>
       <c r="C219">
-        <v>0.151699769101792</v>
+        <v>0.157093742882462</v>
       </c>
       <c r="D219">
-        <v>276136.51854832697</v>
+        <v>272489.66380307899</v>
       </c>
       <c r="E219">
-        <v>226668.61441053401</v>
+        <v>219476.668627298</v>
       </c>
       <c r="F219">
         <v>0</v>
       </c>
       <c r="G219">
-        <v>3300.9478077425601</v>
+        <v>7886.4094979595102</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -5254,16 +5260,16 @@
         <v>0</v>
       </c>
       <c r="J219">
-        <v>46166.956330050598</v>
+        <v>45126.585677821196</v>
       </c>
       <c r="K219">
         <v>0</v>
       </c>
       <c r="L219">
-        <v>0.19981085092812401</v>
+        <v>0.143735647525921</v>
       </c>
       <c r="M219">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
@@ -5274,19 +5280,19 @@
         <v>6.3791111111111096</v>
       </c>
       <c r="C220">
-        <v>0.15293310055790399</v>
+        <v>0.15837092778394499</v>
       </c>
       <c r="D220">
-        <v>280668.89956511703</v>
+        <v>277322.11321932101</v>
       </c>
       <c r="E220">
-        <v>230137.08240347399</v>
+        <v>222834.10396052699</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220">
-        <v>3611.1270611172999</v>
+        <v>8624.6751731185595</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -5295,16 +5301,16 @@
         <v>0</v>
       </c>
       <c r="J220">
-        <v>46920.690100526001</v>
+        <v>45863.334085675102</v>
       </c>
       <c r="K220">
         <v>0</v>
       </c>
       <c r="L220">
-        <v>0.19976342398146499</v>
+        <v>0.14365107525898799</v>
       </c>
       <c r="M220">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
@@ -5315,19 +5321,19 @@
         <v>6.43055555555555</v>
       </c>
       <c r="C221">
-        <v>0.154166432014016</v>
+        <v>0.159648112685429</v>
       </c>
       <c r="D221">
-        <v>285255.83102168899</v>
+        <v>282240.699982722</v>
       </c>
       <c r="E221">
-        <v>233630.24259186001</v>
+        <v>226215.42722881501</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221">
-        <v>3945.0614513739602</v>
+        <v>9419.2246862246793</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -5336,16 +5342,16 @@
         <v>0</v>
       </c>
       <c r="J221">
-        <v>47680.526978454698</v>
+        <v>46606.048067681702</v>
       </c>
       <c r="K221">
         <v>0</v>
       </c>
       <c r="L221">
-        <v>0.19971645614837299</v>
+        <v>0.14356731590650301</v>
       </c>
       <c r="M221">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
@@ -5356,19 +5362,19 @@
         <v>6.4820000000000002</v>
       </c>
       <c r="C222">
-        <v>0.15539976347012899</v>
+        <v>0.16092529758691199</v>
       </c>
       <c r="D222">
-        <v>289898.66915068799</v>
+        <v>287248.64830177597</v>
       </c>
       <c r="E222">
-        <v>237148.07274468199</v>
+        <v>229620.61684230299</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222">
-        <v>4304.1294421695302</v>
+        <v>10273.3038356325</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -5377,16 +5383,16 @@
         <v>0</v>
       </c>
       <c r="J222">
-        <v>48446.466963836501</v>
+        <v>47354.727623840903</v>
       </c>
       <c r="K222">
         <v>0</v>
       </c>
       <c r="L222">
-        <v>0.19966993932002</v>
+        <v>0.14348435517244601</v>
       </c>
       <c r="M222">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
@@ -5397,19 +5403,19 @@
         <v>6.5334444444444397</v>
       </c>
       <c r="C223">
-        <v>0.156633094926241</v>
+        <v>0.162202482488396</v>
       </c>
       <c r="D223">
-        <v>294598.82143193297</v>
+        <v>292349.30172045197</v>
       </c>
       <c r="E223">
-        <v>240690.55083753701</v>
+        <v>233049.65141189101</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223">
-        <v>4689.7605377242498</v>
+        <v>11190.2775544086</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -5418,16 +5424,16 @@
         <v>0</v>
       </c>
       <c r="J223">
-        <v>49218.510056671701</v>
+        <v>48109.372754152799</v>
       </c>
       <c r="K223">
         <v>0</v>
       </c>
       <c r="L223">
-        <v>0.19962386559417999</v>
+        <v>0.143402179123895</v>
       </c>
       <c r="M223">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
@@ -5438,19 +5444,19 @@
         <v>6.5848888888888801</v>
       </c>
       <c r="C224">
-        <v>0.15786642638235299</v>
+        <v>0.16347966738987901</v>
       </c>
       <c r="D224">
-        <v>299357.747068158</v>
+        <v>297546.12475345499</v>
       </c>
       <c r="E224">
-        <v>244257.65504908701</v>
+        <v>236502.50974579001</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224">
-        <v>5103.4357621114004</v>
+        <v>12173.631549047101</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -5459,16 +5465,16 @@
         <v>0</v>
       </c>
       <c r="J224">
-        <v>49996.656256960101</v>
+        <v>48869.983458617397</v>
       </c>
       <c r="K224">
         <v>0</v>
       </c>
       <c r="L224">
-        <v>0.19957822726837299</v>
+        <v>0.14332077417901101</v>
       </c>
       <c r="M224">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
@@ -5479,19 +5485,19 @@
         <v>6.6363333333333303</v>
       </c>
       <c r="C225">
-        <v>0.159099757838465</v>
+        <v>0.164756852291363</v>
       </c>
       <c r="D225">
-        <v>304176.957393191</v>
+        <v>302842.70452416898</v>
       </c>
       <c r="E225">
-        <v>247849.36375759001</v>
+        <v>239979.17084615899</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225">
-        <v>5546.6880708989702</v>
+        <v>13226.973940776201</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -5500,16 +5506,16 @@
         <v>0</v>
       </c>
       <c r="J225">
-        <v>50780.905564701701</v>
+        <v>49636.559737234602</v>
       </c>
       <c r="K225">
         <v>0</v>
       </c>
       <c r="L225">
-        <v>0.19953301683330099</v>
+        <v>0.143240127095522</v>
       </c>
       <c r="M225">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
@@ -5520,19 +5526,19 @@
         <v>6.6877777777777698</v>
       </c>
       <c r="C226">
-        <v>0.16033308929457701</v>
+        <v>0.16603403719284601</v>
       </c>
       <c r="D226">
-        <v>309058.01618173998</v>
+        <v>308242.75209765998</v>
       </c>
       <c r="E226">
-        <v>251465.65553752999</v>
+        <v>243479.61390581701</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="G226">
-        <v>6021.1026643127998</v>
+        <v>14354.036601839</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -5541,16 +5547,16 @@
         <v>0</v>
       </c>
       <c r="J226">
-        <v>51571.257979896604</v>
+        <v>50409.101590004502</v>
       </c>
       <c r="K226">
         <v>0</v>
       </c>
       <c r="L226">
-        <v>0.19948822696653601</v>
+        <v>0.14316022495966499</v>
       </c>
       <c r="M226">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
@@ -5561,19 +5567,19 @@
         <v>6.73922222222222</v>
       </c>
       <c r="C227">
-        <v>0.161566420750689</v>
+        <v>0.16731122209433</v>
       </c>
       <c r="D227">
-        <v>314002.539828607</v>
+        <v>313750.10307398898</v>
       </c>
       <c r="E227">
-        <v>255106.50915632199</v>
+        <v>247003.81830504999</v>
       </c>
       <c r="F227">
         <v>0</v>
       </c>
       <c r="G227">
-        <v>6528.3171697398702</v>
+        <v>15558.675752011601</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -5582,16 +5588,16 @@
         <v>0</v>
       </c>
       <c r="J227">
-        <v>52367.713502544699</v>
+        <v>51187.609016927097</v>
       </c>
       <c r="K227">
         <v>0</v>
       </c>
       <c r="L227">
-        <v>0.19944385052647301</v>
+        <v>0.14308105517556999</v>
       </c>
       <c r="M227">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
@@ -5602,19 +5608,19 @@
         <v>6.7906666666666604</v>
       </c>
       <c r="C228">
-        <v>0.16279975220680101</v>
+        <v>0.16858840699581301</v>
       </c>
       <c r="D228">
-        <v>319012.19737729401</v>
+        <v>319368.71699212398</v>
       </c>
       <c r="E228">
-        <v>258771.90357109701</v>
+        <v>250551.76360848601</v>
       </c>
       <c r="F228">
         <v>0</v>
       </c>
       <c r="G228">
-        <v>7070.0216735513404</v>
+        <v>16844.8713656361</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -5623,16 +5629,16 @@
         <v>0</v>
       </c>
       <c r="J228">
-        <v>53170.272132646001</v>
+        <v>51972.0820180023</v>
       </c>
       <c r="K228">
         <v>0</v>
       </c>
       <c r="L228">
-        <v>0.19939988054651001</v>
+        <v>0.14300260545506799</v>
       </c>
       <c r="M228">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
@@ -5643,19 +5649,19 @@
         <v>6.8421111111111097</v>
       </c>
       <c r="C229">
-        <v>0.164033083662914</v>
+        <v>0.169865591897296</v>
       </c>
       <c r="D229">
-        <v>324088.71040681901</v>
+        <v>325102.675254217</v>
       </c>
       <c r="E229">
-        <v>262461.81792557001</v>
+        <v>254123.42956204299</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
       <c r="G229">
-        <v>7647.9586110482496</v>
+        <v>18216.7250989432</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -5664,16 +5670,16 @@
         <v>0</v>
       </c>
       <c r="J229">
-        <v>53978.933870200599</v>
+        <v>52762.520593230103</v>
       </c>
       <c r="K229">
         <v>0</v>
       </c>
       <c r="L229">
-        <v>0.19935631022947201</v>
+        <v>0.14292486380790101</v>
       </c>
       <c r="M229">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
@@ -5684,19 +5690,19 @@
         <v>6.8935555555555501</v>
       </c>
       <c r="C230">
-        <v>0.16526641511902601</v>
+        <v>0.17114277679878001</v>
       </c>
       <c r="D230">
-        <v>329233.85282914998</v>
+        <v>330956.17763513798</v>
       </c>
       <c r="E230">
-        <v>266176.23154697998</v>
+        <v>257718.796089963</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
       <c r="G230">
-        <v>8263.9225669620391</v>
+        <v>19678.456802564899</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -5705,16 +5711,16 @@
         <v>0</v>
       </c>
       <c r="J230">
-        <v>54793.698715208397</v>
+        <v>53558.924742610703</v>
       </c>
       <c r="K230">
         <v>0</v>
       </c>
       <c r="L230">
-        <v>0.19931313294224401</v>
+        <v>0.14284781853230999</v>
       </c>
       <c r="M230">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
@@ -5725,19 +5731,19 @@
         <v>6.9450000000000003</v>
       </c>
       <c r="C231">
-        <v>0.166499746575138</v>
+        <v>0.172419961700263</v>
       </c>
       <c r="D231">
-        <v>334449.45069985499</v>
+        <v>336933.53795138199</v>
       </c>
       <c r="E231">
-        <v>269915.123943099</v>
+        <v>261337.84329190099</v>
       </c>
       <c r="F231">
         <v>0</v>
       </c>
       <c r="G231">
-        <v>8919.7600890856502</v>
+        <v>21234.400193336998</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -5746,16 +5752,16 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>55614.566667669496</v>
+        <v>54361.294466143903</v>
       </c>
       <c r="K231">
         <v>0</v>
       </c>
       <c r="L231">
-        <v>0.19927034221061399</v>
+        <v>0.14277145820599399</v>
       </c>
       <c r="M231">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
@@ -5766,19 +5772,19 @@
         <v>6.9964444444444398</v>
       </c>
       <c r="C232">
-        <v>0.16773307803125001</v>
+        <v>0.17369714660174701</v>
       </c>
       <c r="D232">
-        <v>339737.38218684599</v>
+        <v>343039.180017362</v>
       </c>
       <c r="E232">
-        <v>273678.47479932097</v>
+        <v>264980.55144009501</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
       <c r="G232">
-        <v>9617.3696599403993</v>
+        <v>22888.9988134376</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -5787,16 +5793,16 @@
         <v>0</v>
       </c>
       <c r="J232">
-        <v>56441.537727583796</v>
+        <v>55169.629763829798</v>
       </c>
       <c r="K232">
         <v>0</v>
       </c>
       <c r="L232">
-        <v>0.19922793171431899</v>
+        <v>0.14269577167741199</v>
       </c>
       <c r="M232">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
@@ -5807,19 +5813,19 @@
         <v>7.0478888888888802</v>
       </c>
       <c r="C233">
-        <v>0.168966409487362</v>
+        <v>0.17497433150323</v>
       </c>
       <c r="D233">
-        <v>345099.57785891998</v>
+        <v>349277.63545524201</v>
       </c>
       <c r="E233">
-        <v>277466.26397580898</v>
+        <v>268646.90097659599</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="G233">
-        <v>10358.701988159801</v>
+        <v>24646.803842977701</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -5828,16 +5834,16 @@
         <v>0</v>
       </c>
       <c r="J233">
-        <v>57274.611894951398</v>
+        <v>55983.930635668301</v>
       </c>
       <c r="K233">
         <v>0</v>
       </c>
       <c r="L233">
-        <v>0.19918589528227801</v>
+        <v>0.142620748057426</v>
       </c>
       <c r="M233">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
@@ -5848,19 +5854,19 @@
         <v>7.0993333333333304</v>
       </c>
       <c r="C234">
-        <v>0.17019974094347401</v>
+        <v>0.17625151640471401</v>
       </c>
       <c r="D234">
-        <v>350538.02143028198</v>
+        <v>355653.54507100902</v>
       </c>
       <c r="E234">
-        <v>281278.47150471399</v>
+        <v>272336.87251056498</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234">
-        <v>11145.760755795</v>
+        <v>26512.475478784199</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -5869,16 +5875,16 @@
         <v>0</v>
       </c>
       <c r="J234">
-        <v>58113.789169772201</v>
+        <v>56804.197081659499</v>
       </c>
       <c r="K234">
         <v>0</v>
       </c>
       <c r="L234">
-        <v>0.19914422688800301</v>
+        <v>0.14254637671124601</v>
       </c>
       <c r="M234">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
@@ -5889,19 +5895,19 @@
         <v>7.1507777777777699</v>
       </c>
       <c r="C235">
-        <v>0.171433072399586</v>
+        <v>0.177528701306197</v>
       </c>
       <c r="D235">
-        <v>356054.75101926201</v>
+        <v>362171.66522250499</v>
       </c>
       <c r="E235">
-        <v>285115.07758746098</v>
+        <v>276050.44681562902</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235">
-        <v>11980.603879754301</v>
+        <v>28490.7893050721</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -5910,16 +5916,16 @@
         <v>0</v>
       </c>
       <c r="J235">
-        <v>58959.069552046203</v>
+        <v>57630.429101803398</v>
       </c>
       <c r="K235">
         <v>0</v>
       </c>
       <c r="L235">
-        <v>0.199102920645192</v>
+        <v>0.142472647250697</v>
       </c>
       <c r="M235">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
@@ -5930,19 +5936,19 @@
         <v>7.2022222222222201</v>
       </c>
       <c r="C236">
-        <v>0.17266640385569901</v>
+        <v>0.17880588620768001</v>
       </c>
       <c r="D236">
-        <v>361651.86084995797</v>
+        <v>368836.87982323399</v>
       </c>
       <c r="E236">
-        <v>288976.062592089</v>
+        <v>279787.60482730501</v>
       </c>
       <c r="F236">
         <v>0</v>
       </c>
       <c r="G236">
-        <v>12865.3452160953</v>
+        <v>30586.648299829401</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -5951,16 +5957,16 @@
         <v>0</v>
       </c>
       <c r="J236">
-        <v>59810.4530417735</v>
+        <v>58462.626696099898</v>
       </c>
       <c r="K236">
         <v>0</v>
       </c>
       <c r="L236">
-        <v>0.19906197080347901</v>
+        <v>0.14239954952676101</v>
       </c>
       <c r="M236">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
@@ -5971,19 +5977,19 @@
         <v>7.2536666666666596</v>
       </c>
       <c r="C237">
-        <v>0.17389973531181099</v>
+        <v>0.18008307110916399</v>
       </c>
       <c r="D237">
-        <v>367331.50315957097</v>
+        <v>375654.21740239399</v>
       </c>
       <c r="E237">
-        <v>292861.40705065703</v>
+        <v>283548.32764047198</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237">
-        <v>13802.1564699595</v>
+        <v>32805.0998973729</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -5992,16 +5998,16 @@
         <v>0</v>
       </c>
       <c r="J237">
-        <v>60667.939638953998</v>
+        <v>59300.7898645491</v>
       </c>
       <c r="K237">
         <v>0</v>
       </c>
       <c r="L237">
-        <v>0.19902137174434401</v>
+        <v>0.14232707362240299</v>
       </c>
       <c r="M237">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
@@ -6012,19 +6018,19 @@
         <v>7.3051111111111098</v>
       </c>
       <c r="C238">
-        <v>0.17513306676792301</v>
+        <v>0.18136025601064701</v>
       </c>
       <c r="D238">
-        <v>373095.88990071998</v>
+        <v>382628.87115316599</v>
       </c>
       <c r="E238">
-        <v>296771.09165671101</v>
+        <v>287332.59650691098</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238">
-        <v>14793.268900421101</v>
+        <v>35151.356039103499</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -6033,16 +6039,16 @@
         <v>0</v>
       </c>
       <c r="J238">
-        <v>61531.529343587797</v>
+        <v>60144.918607150903</v>
       </c>
       <c r="K238">
         <v>0</v>
       </c>
       <c r="L238">
-        <v>0.19898111797718099</v>
+        <v>0.14225520984565901</v>
       </c>
       <c r="M238">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
@@ -6053,19 +6059,19 @@
         <v>7.3565555555555502</v>
       </c>
       <c r="C239">
-        <v>0.17636639822403499</v>
+        <v>0.18263744091213099</v>
       </c>
       <c r="D239">
-        <v>378947.293685604</v>
+        <v>389766.21842578001</v>
       </c>
       <c r="E239">
-        <v>300705.09726279997</v>
+        <v>291140.39283289301</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239">
-        <v>15840.974267129401</v>
+        <v>37630.812668981896</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -6074,16 +6080,16 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>62401.222155674797</v>
+        <v>60995.0129239054</v>
       </c>
       <c r="K239">
         <v>0</v>
       </c>
       <c r="L239">
-        <v>0.19894120413549801</v>
+        <v>0.14218394872298101</v>
       </c>
       <c r="M239">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
@@ -6094,19 +6100,19 @@
         <v>7.4080000000000004</v>
       </c>
       <c r="C240">
-        <v>0.17759972968014701</v>
+        <v>0.18391462581361401</v>
       </c>
       <c r="D240">
-        <v>384888.04734930699</v>
+        <v>397071.83499016799</v>
       </c>
       <c r="E240">
-        <v>304663.40487805603</v>
+        <v>294971.69817682198</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240">
-        <v>16947.624396035601</v>
+        <v>40249.063998533398</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -6115,16 +6121,16 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>63277.018075215099</v>
+        <v>61851.0728148126</v>
       </c>
       <c r="K240">
         <v>0</v>
       </c>
       <c r="L240">
-        <v>0.19890162497326599</v>
+        <v>0.14211328099281501</v>
       </c>
       <c r="M240">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
@@ -6135,19 +6141,19 @@
         <v>7.4594444444444399</v>
       </c>
       <c r="C241">
-        <v>0.17883306113625899</v>
+        <v>0.18519181071509799</v>
       </c>
       <c r="D241">
-        <v>390920.54154875001</v>
+        <v>404551.498922528</v>
       </c>
       <c r="E241">
-        <v>308645.99566582101</v>
+        <v>298826.494246936</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241">
-        <v>18115.628780719799</v>
+        <v>43011.906395719998</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -6156,16 +6162,16 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>64158.917102208601</v>
+        <v>62713.098279872502</v>
       </c>
       <c r="K241">
         <v>0</v>
       </c>
       <c r="L241">
-        <v>0.198862375361396</v>
+        <v>0.14204319759942299</v>
       </c>
       <c r="M241">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
@@ -6176,19 +6182,19 @@
         <v>7.5108888888888803</v>
       </c>
       <c r="C242">
-        <v>0.18006639259237101</v>
+        <v>0.18646899561658101</v>
       </c>
       <c r="D242">
-        <v>397047.21998349502</v>
+        <v>412211.179395955</v>
       </c>
       <c r="E242">
-        <v>312652.85094133101</v>
+        <v>302704.76289904601</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
       <c r="G242">
-        <v>19347.449805508299</v>
+        <v>45925.327177823499</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -6197,16 +6203,16 @@
         <v>0</v>
       </c>
       <c r="J242">
-        <v>65046.919236655303</v>
+        <v>63581.089319084997</v>
       </c>
       <c r="K242">
         <v>0</v>
       </c>
       <c r="L242">
-        <v>0.19882345028434001</v>
+        <v>0.14197368968691601</v>
       </c>
       <c r="M242">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
@@ -6217,19 +6223,19 @@
         <v>7.5623333333333296</v>
       </c>
       <c r="C243">
-        <v>0.18129972404848299</v>
+        <v>0.18774618051806399</v>
       </c>
       <c r="D243">
-        <v>403270.57212534599</v>
+        <v>420057.00707354199</v>
       </c>
       <c r="E243">
-        <v>316683.95216944598</v>
+        <v>306606.48613434198</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="G243">
-        <v>20645.595477345199</v>
+        <v>48995.475006749897</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -6238,16 +6244,16 @@
         <v>0</v>
       </c>
       <c r="J243">
-        <v>65941.024478555293</v>
+        <v>64455.045932450099</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
       <c r="L243">
-        <v>0.19878484483682199</v>
+        <v>0.14190474859350799</v>
       </c>
       <c r="M243">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
@@ -6258,19 +6264,19 @@
         <v>7.61377777777777</v>
       </c>
       <c r="C244">
-        <v>0.182533055504596</v>
+        <v>0.18902336541954801</v>
       </c>
       <c r="D244">
-        <v>409593.12375188997</v>
+        <v>428095.22513931</v>
       </c>
       <c r="E244">
-        <v>320739.28096243099</v>
+        <v>310531.646097227</v>
       </c>
       <c r="F244">
         <v>0</v>
       </c>
       <c r="G244">
-        <v>22012.609961549599</v>
+        <v>52228.6109221148</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -6279,16 +6285,16 @@
         <v>0</v>
       </c>
       <c r="J244">
-        <v>66841.232827908607</v>
+        <v>65334.968119967998</v>
       </c>
       <c r="K244">
         <v>0</v>
       </c>
       <c r="L244">
-        <v>0.198746554220673</v>
+        <v>0.14183636584596601</v>
       </c>
       <c r="M244">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
@@ -6299,19 +6305,19 @@
         <v>7.6652222222222202</v>
       </c>
       <c r="C245">
-        <v>0.18376638696070799</v>
+        <v>0.19030055032103099</v>
       </c>
       <c r="D245">
-        <v>416017.42604765098</v>
+        <v>436332.12301417801</v>
       </c>
       <c r="E245">
-        <v>324818.81907779101</v>
+        <v>314480.22507321398</v>
       </c>
       <c r="F245">
         <v>0</v>
       </c>
       <c r="G245">
-        <v>23451.062685145302</v>
+        <v>55631.0420593257</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -6320,16 +6326,16 @@
         <v>0</v>
       </c>
       <c r="J245">
-        <v>67747.544284714997</v>
+        <v>66220.855881638505</v>
       </c>
       <c r="K245">
         <v>0</v>
       </c>
       <c r="L245">
-        <v>0.19870857374178699</v>
+        <v>0.141768533154259</v>
       </c>
       <c r="M245">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
@@ -6340,19 +6346,19 @@
         <v>7.7166666666666597</v>
       </c>
       <c r="C246">
-        <v>0.18499971841682</v>
+        <v>0.19157773522251501</v>
       </c>
       <c r="D246">
-        <v>422546.04450035997</v>
+        <v>444773.95810731902</v>
       </c>
       <c r="E246">
-        <v>328922.548416137</v>
+        <v>318452.20548685902</v>
       </c>
       <c r="F246">
         <v>0</v>
       </c>
       <c r="G246">
-        <v>24963.537235247601</v>
+        <v>59209.043402999203</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -6361,16 +6367,16 @@
         <v>0</v>
       </c>
       <c r="J246">
-        <v>68659.958848974697</v>
+        <v>67112.709217461597</v>
       </c>
       <c r="K246">
         <v>0</v>
       </c>
       <c r="L246">
-        <v>0.198670898807179</v>
+        <v>0.14170124240639401</v>
       </c>
       <c r="M246">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
@@ -6381,19 +6387,19 @@
         <v>7.7681111111111099</v>
       </c>
       <c r="C247">
-        <v>0.18623304987293199</v>
+        <v>0.19285492012399799</v>
       </c>
       <c r="D247">
-        <v>429181.54920425703</v>
+        <v>453426.87407742202</v>
       </c>
       <c r="E247">
-        <v>333050.45101911802</v>
+        <v>322447.569899739</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
       <c r="G247">
-        <v>26552.621664451999</v>
+        <v>62968.7760502456</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -6402,16 +6408,16 @@
         <v>0</v>
       </c>
       <c r="J247">
-        <v>69578.476520687705</v>
+        <v>68010.528127437399</v>
       </c>
       <c r="K247">
         <v>0</v>
       </c>
       <c r="L247">
-        <v>0.198633524922146</v>
+        <v>0.14163448566343101</v>
       </c>
       <c r="M247">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
@@ -6422,19 +6428,19 @@
         <v>7.8195555555555503</v>
       </c>
       <c r="C248">
-        <v>0.187466381329044</v>
+        <v>0.194132105025482</v>
       </c>
       <c r="D248">
-        <v>435926.50841425598</v>
+        <v>462296.82653305901</v>
       </c>
       <c r="E248">
-        <v>337202.50906737399</v>
+        <v>326466.30100847798</v>
       </c>
       <c r="F248">
         <v>0</v>
       </c>
       <c r="G248">
-        <v>28220.902047027801</v>
+        <v>66916.212913015101</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -6443,16 +6449,16 @@
         <v>0</v>
       </c>
       <c r="J248">
-        <v>70503.097299853893</v>
+        <v>68914.312611565896</v>
       </c>
       <c r="K248">
         <v>0</v>
       </c>
       <c r="L248">
-        <v>0.19859644768752899</v>
+        <v>0.14156825515466601</v>
       </c>
       <c r="M248">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
@@ -6463,19 +6469,19 @@
         <v>7.8710000000000004</v>
       </c>
       <c r="C249">
-        <v>0.18869971278515599</v>
+        <v>0.19540928992696499</v>
       </c>
       <c r="D249">
-        <v>442783.48721337097</v>
+        <v>471389.52844462497</v>
       </c>
       <c r="E249">
-        <v>341378.70487855503</v>
+        <v>330508.38164280698</v>
       </c>
       <c r="F249">
         <v>0</v>
       </c>
       <c r="G249">
-        <v>29970.961148342802</v>
+        <v>71057.0841319709</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -6484,16 +6490,16 @@
         <v>0</v>
       </c>
       <c r="J249">
-        <v>71433.821186473302</v>
+        <v>69824.062669847102</v>
       </c>
       <c r="K249">
         <v>0</v>
       </c>
       <c r="L249">
-        <v>0.198559662797059</v>
+        <v>0.14150254327298201</v>
       </c>
       <c r="M249">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
@@ -6504,19 +6510,19 @@
         <v>7.92244444444444</v>
       </c>
       <c r="C250">
-        <v>0.189933044241268</v>
+        <v>0.196686474828448</v>
       </c>
       <c r="D250">
-        <v>449755.05292326602</v>
+        <v>480710.42744217301</v>
       </c>
       <c r="E250">
-        <v>345579.02090536</v>
+        <v>334573.79476366699</v>
       </c>
       <c r="F250">
         <v>0</v>
       </c>
       <c r="G250">
-        <v>31805.383837359699</v>
+        <v>75396.854376225005</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -6525,16 +6531,16 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>72370.648180546006</v>
+        <v>70739.778302280902</v>
       </c>
       <c r="K250">
         <v>0</v>
       </c>
       <c r="L250">
-        <v>0.19852316603480999</v>
+        <v>0.141437342570362</v>
       </c>
       <c r="M250">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
@@ -6545,19 +6551,19 @@
         <v>7.9738888888888804</v>
       </c>
       <c r="C251">
-        <v>0.19116637569738101</v>
+        <v>0.19796365972993199</v>
       </c>
       <c r="D251">
-        <v>456843.78839618101</v>
+        <v>490264.72546687297</v>
       </c>
       <c r="E251">
-        <v>349803.43973363301</v>
+        <v>338662.52346135501</v>
       </c>
       <c r="F251">
         <v>0</v>
       </c>
       <c r="G251">
-        <v>33726.770380476599</v>
+        <v>79940.742496649706</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -6566,16 +6572,16 @@
         <v>0</v>
       </c>
       <c r="J251">
-        <v>73313.578282071903</v>
+        <v>71661.459508867294</v>
       </c>
       <c r="K251">
         <v>0</v>
       </c>
       <c r="L251">
-        <v>0.19848695327272001</v>
+        <v>0.141372645753541</v>
       </c>
       <c r="M251">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -6586,19 +6592,19 @@
         <v>8.0253333333333305</v>
       </c>
       <c r="C252">
-        <v>0.192399707153493</v>
+        <v>0.199240844631415</v>
       </c>
       <c r="D252">
-        <v>464052.31360195199</v>
+        <v>500057.44795792003</v>
       </c>
       <c r="E252">
-        <v>354051.94408048602</v>
+        <v>342774.55095370498</v>
       </c>
       <c r="F252">
         <v>0</v>
       </c>
       <c r="G252">
-        <v>35737.758030415098</v>
+        <v>84693.790714608404</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -6607,16 +6613,16 @@
         <v>0</v>
       </c>
       <c r="J252">
-        <v>74262.611491050993</v>
+        <v>72589.106289606498</v>
       </c>
       <c r="K252">
         <v>0</v>
       </c>
       <c r="L252">
-        <v>0.19845102046821</v>
+        <v>0.14130844567982201</v>
       </c>
       <c r="M252">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
@@ -6627,19 +6633,19 @@
         <v>8.0767777777777692</v>
       </c>
       <c r="C253">
-        <v>0.19363303860960501</v>
+        <v>0.20051802953289899</v>
       </c>
       <c r="D253">
-        <v>471383.31502519199</v>
+        <v>510093.56512871198</v>
       </c>
       <c r="E253">
-        <v>358324.51679247199</v>
+        <v>346909.86058430298</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
       <c r="G253">
-        <v>37841.050425237197</v>
+        <v>89660.985899910505</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -6648,16 +6654,16 @@
         <v>0</v>
       </c>
       <c r="J253">
-        <v>75217.747807483407</v>
+        <v>73522.718644498294</v>
       </c>
       <c r="K253">
         <v>0</v>
       </c>
       <c r="L253">
-        <v>0.19841536366187301</v>
+        <v>0.14124473535301299</v>
       </c>
       <c r="M253">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
@@ -6668,19 +6674,19 @@
         <v>8.1282222222222202</v>
       </c>
       <c r="C254">
-        <v>0.194866370065717</v>
+        <v>0.201795214434382</v>
       </c>
       <c r="D254">
-        <v>478839.58140140201</v>
+        <v>520378.16234585101</v>
       </c>
       <c r="E254">
-        <v>362621.14084378199</v>
+        <v>351068.435820746</v>
       </c>
       <c r="F254">
         <v>0</v>
       </c>
       <c r="G254">
-        <v>40039.453326250703</v>
+        <v>94847.429951562401</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -6689,16 +6695,16 @@
         <v>0</v>
       </c>
       <c r="J254">
-        <v>76178.987231369101</v>
+        <v>74462.296573542801</v>
       </c>
       <c r="K254">
         <v>0</v>
       </c>
       <c r="L254">
-        <v>0.19837997897524301</v>
+        <v>0.14118150791951201</v>
       </c>
       <c r="M254">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
@@ -6709,19 +6715,19 @@
         <v>8.1796666666666606</v>
       </c>
       <c r="C255">
-        <v>0.19609970152182901</v>
+        <v>0.20307239933586599</v>
       </c>
       <c r="D255">
-        <v>486424.04335091502</v>
+        <v>530916.65075235395</v>
       </c>
       <c r="E255">
-        <v>366941.79933449201</v>
+        <v>355250.26025292499</v>
       </c>
       <c r="F255">
         <v>0</v>
       </c>
       <c r="G255">
-        <v>42335.914253714604</v>
+        <v>100258.550422689</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -6730,16 +6736,16 @@
         <v>0</v>
       </c>
       <c r="J255">
-        <v>77146.329762708003</v>
+        <v>75407.8400767399</v>
       </c>
       <c r="K255">
         <v>0</v>
       </c>
       <c r="L255">
-        <v>0.19834486260864301</v>
+        <v>0.14111875666451201</v>
       </c>
       <c r="M255">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
@@ -6750,19 +6756,19 @@
         <v>8.2311111111111099</v>
       </c>
       <c r="C256">
-        <v>0.197333032977941</v>
+        <v>0.204349584237349</v>
       </c>
       <c r="D256">
-        <v>494139.81362566899</v>
+        <v>541715.00373361597</v>
       </c>
       <c r="E256">
-        <v>371286.47548883298</v>
+        <v>359455.31759135902</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
       <c r="G256">
-        <v>44733.562735336003</v>
+        <v>105900.33698816699</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -6771,16 +6777,16 @@
         <v>0</v>
       </c>
       <c r="J256">
-        <v>78119.775401500097</v>
+        <v>76359.349154089694</v>
       </c>
       <c r="K256">
         <v>0</v>
       </c>
       <c r="L256">
-        <v>0.198310010839092</v>
+        <v>0.14105647500834001</v>
       </c>
       <c r="M256">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
@@ -6791,19 +6797,19 @@
         <v>8.2825555555555503</v>
       </c>
       <c r="C257">
-        <v>0.19856636443405301</v>
+        <v>0.20562676913883299</v>
       </c>
       <c r="D257">
-        <v>501990.22406689997</v>
+        <v>552780.00026650203</v>
       </c>
       <c r="E257">
-        <v>375655.15265350201</v>
+        <v>363683.591665541</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257">
-        <v>47235.747265652499</v>
+        <v>111779.58479536801</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -6812,16 +6818,16 @@
         <v>0</v>
       </c>
       <c r="J257">
-        <v>79099.324147745501</v>
+        <v>77316.823805592096</v>
       </c>
       <c r="K257">
         <v>0</v>
       </c>
       <c r="L257">
-        <v>0.19827542001828899</v>
+        <v>0.14099465650290199</v>
       </c>
       <c r="M257">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
@@ -6832,19 +6838,19 @@
         <v>8.3339999999999996</v>
       </c>
       <c r="C258">
-        <v>0.199799695890166</v>
+        <v>0.206903954040316</v>
       </c>
       <c r="D258">
-        <v>509978.85506210598</v>
+        <v>564119.45317594602</v>
       </c>
       <c r="E258">
-        <v>380047.81429600797</v>
+        <v>367935.066422339</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258">
-        <v>49846.064764653602</v>
+        <v>117904.122722359</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -6853,16 +6859,16 @@
         <v>0</v>
       </c>
       <c r="J258">
-        <v>80084.9760014442</v>
+        <v>78280.264031247294</v>
       </c>
       <c r="K258">
         <v>0</v>
       </c>
       <c r="L258">
-        <v>0.198241086570661</v>
+        <v>0.140933294828258</v>
       </c>
       <c r="M258">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
@@ -6873,19 +6879,19 @@
         <v>8.38544444444444</v>
       </c>
       <c r="C259">
-        <v>0.20103302734627801</v>
+        <v>0.20818113894179899</v>
       </c>
       <c r="D259">
-        <v>518109.55333645601</v>
+        <v>575742.39922897005</v>
       </c>
       <c r="E259">
-        <v>384464.444003043</v>
+        <v>372209.72592440702</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
       <c r="G259">
-        <v>52568.378370816303</v>
+        <v>124283.003473508</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -6894,16 +6900,16 @@
         <v>0</v>
       </c>
       <c r="J259">
-        <v>81076.730962596004</v>
+        <v>79249.669831054998</v>
       </c>
       <c r="K259">
         <v>0</v>
       </c>
       <c r="L259">
-        <v>0.19820700699147001</v>
+        <v>0.14087238378929001</v>
       </c>
       <c r="M259">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
@@ -6914,19 +6920,19 @@
         <v>8.4368888888888804</v>
       </c>
       <c r="C260">
-        <v>0.20226635880238999</v>
+        <v>0.209458323843283</v>
       </c>
       <c r="D260">
-        <v>526386.43433086795</v>
+        <v>587659.22897354595</v>
       </c>
       <c r="E260">
-        <v>388905.025478895</v>
+        <v>376507.55434864498</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260">
-        <v>55406.819820771299</v>
+        <v>130926.633419884</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -6935,16 +6941,16 @@
         <v>0</v>
       </c>
       <c r="J260">
-        <v>82074.589031201103</v>
+        <v>80225.041205015397</v>
       </c>
       <c r="K260">
         <v>0</v>
       </c>
       <c r="L260">
-        <v>0.198173177844986</v>
+        <v>0.14081191731249099</v>
       </c>
       <c r="M260">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
@@ -6955,19 +6961,19 @@
         <v>8.4883333333333297</v>
       </c>
       <c r="C261">
-        <v>0.20349969025850201</v>
+        <v>0.21073550874476599</v>
       </c>
       <c r="D261">
-        <v>534813.86618387001</v>
+        <v>599881.73718761397</v>
       </c>
       <c r="E261">
-        <v>393369.54254388099</v>
+        <v>380828.53598467901</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261">
-        <v>58365.773432729096</v>
+        <v>137846.82304980501</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -6976,16 +6982,16 @@
         <v>0</v>
       </c>
       <c r="J261">
-        <v>83078.550207259395</v>
+        <v>81206.378153128593</v>
       </c>
       <c r="K261">
         <v>0</v>
       </c>
       <c r="L261">
-        <v>0.19813959576271301</v>
+        <v>0.140751889442851</v>
       </c>
       <c r="M261">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -6996,19 +7002,19 @@
         <v>8.5397777777777701</v>
       </c>
       <c r="C262">
-        <v>0.20473302171461399</v>
+        <v>0.21201269364625</v>
       </c>
       <c r="D262">
-        <v>543396.43339366303</v>
+        <v>612423.079437771</v>
       </c>
       <c r="E262">
-        <v>397857.97913281899</v>
+        <v>385172.65523337101</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
       <c r="G262">
-        <v>61449.8397700727</v>
+        <v>145056.74352900599</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -7017,16 +7023,16 @@
         <v>0</v>
       </c>
       <c r="J262">
-        <v>84088.614490770997</v>
+        <v>82193.680675394295</v>
       </c>
       <c r="K262">
         <v>0</v>
       </c>
       <c r="L262">
-        <v>0.19810625744167401</v>
+        <v>0.140692294340834</v>
       </c>
       <c r="M262">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
@@ -7037,19 +7043,19 @@
         <v>8.5912222222222194</v>
       </c>
       <c r="C263">
-        <v>0.20596635317072601</v>
+        <v>0.21328987854773299</v>
       </c>
       <c r="D263">
-        <v>552138.879513775</v>
+        <v>625297.62610285799</v>
       </c>
       <c r="E263">
-        <v>402370.31929352501</v>
+        <v>389539.89660535997</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
       <c r="G263">
-        <v>64663.778338513701</v>
+        <v>152570.78072568501</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -7058,16 +7064,16 @@
         <v>0</v>
       </c>
       <c r="J263">
-        <v>85104.781881735893</v>
+        <v>83186.948771812793</v>
       </c>
       <c r="K263">
         <v>0</v>
       </c>
       <c r="L263">
-        <v>0.19807315964274799</v>
+        <v>0.14063312627946301</v>
       </c>
       <c r="M263">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
@@ -7078,19 +7084,19 @@
         <v>8.6426666666666598</v>
       </c>
       <c r="C264">
-        <v>0.20719968462683799</v>
+        <v>0.214567063449217</v>
       </c>
       <c r="D264">
-        <v>561046.02964048297</v>
+        <v>638520.71177050704</v>
       </c>
       <c r="E264">
-        <v>406906.54718533799</v>
+        <v>393930.24471963302</v>
       </c>
       <c r="F264">
         <v>0</v>
       </c>
       <c r="G264">
-        <v>68012.430074991498</v>
+        <v>160404.28460848899</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -7099,16 +7105,16 @@
         <v>0</v>
       </c>
       <c r="J264">
-        <v>86127.052380153895</v>
+        <v>84186.182442383797</v>
       </c>
       <c r="K264">
         <v>0</v>
       </c>
       <c r="L264">
-        <v>0.19804029918906099</v>
+        <v>0.140574379641483</v>
       </c>
       <c r="M264">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
@@ -7119,19 +7125,19 @@
         <v>8.6941111111111091</v>
       </c>
       <c r="C265">
-        <v>0.20843301608295001</v>
+        <v>0.21584424835070001</v>
       </c>
       <c r="D265">
-        <v>570122.69488903601</v>
+        <v>652108.28465001204</v>
       </c>
       <c r="E265">
-        <v>411466.64707767701</v>
+        <v>398343.68430211802</v>
       </c>
       <c r="F265">
         <v>0</v>
       </c>
       <c r="G265">
-        <v>71500.621825333903</v>
+        <v>168573.21866078599</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -7140,16 +7146,16 @@
         <v>0</v>
       </c>
       <c r="J265">
-        <v>87155.425986025206</v>
+        <v>85191.381687107598</v>
       </c>
       <c r="K265">
         <v>0</v>
       </c>
       <c r="L265">
-        <v>0.19800767296442801</v>
+        <v>0.14051604891662201</v>
       </c>
       <c r="M265">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
@@ -7160,19 +7166,19 @@
         <v>8.7455555555555495</v>
       </c>
       <c r="C266">
-        <v>0.20966634753906299</v>
+        <v>0.217121433252183</v>
       </c>
       <c r="D266">
-        <v>579373.56243876403</v>
+        <v>666076.46712042997</v>
       </c>
       <c r="E266">
-        <v>416050.60334862297</v>
+        <v>402780.20018430299</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
       <c r="G266">
-        <v>75133.056390790996</v>
+        <v>177093.720430143</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -7181,16 +7187,16 @@
         <v>0</v>
       </c>
       <c r="J266">
-        <v>88189.902699349797</v>
+        <v>86202.546505984006</v>
       </c>
       <c r="K266">
         <v>0</v>
       </c>
       <c r="L266">
-        <v>0.197975277911834</v>
+        <v>0.14045812869892799</v>
       </c>
       <c r="M266">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
@@ -7201,19 +7207,19 @@
         <v>8.7970000000000006</v>
       </c>
       <c r="C267">
-        <v>0.21089967899517501</v>
+        <v>0.21839861815366701</v>
       </c>
       <c r="D267">
-        <v>588803.07597367</v>
+        <v>680441.04441267997</v>
       </c>
       <c r="E267">
-        <v>420658.40048352297</v>
+        <v>407239.77730188897</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267">
-        <v>78914.192970018994</v>
+        <v>185981.59021177699</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -7222,16 +7228,16 @@
         <v>0</v>
       </c>
       <c r="J267">
-        <v>89230.482520127494</v>
+        <v>87219.676899013095</v>
       </c>
       <c r="K267">
         <v>0</v>
       </c>
       <c r="L267">
-        <v>0.19794311103197701</v>
+        <v>0.14040061368419399</v>
       </c>
       <c r="M267">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
@@ -7242,19 +7248,19 @@
         <v>8.8484444444444392</v>
       </c>
       <c r="C268">
-        <v>0.21213301045128699</v>
+        <v>0.21967580305515</v>
       </c>
       <c r="D268">
-        <v>598415.31238518795</v>
+        <v>695216.90348144004</v>
       </c>
       <c r="E268">
-        <v>425290.02307363</v>
+        <v>411722.40069345903</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268">
-        <v>82848.123863199406</v>
+        <v>195251.72992178501</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -7263,16 +7269,16 @@
         <v>0</v>
       </c>
       <c r="J268">
-        <v>90277.165448358603</v>
+        <v>88242.772866194893</v>
       </c>
       <c r="K268">
         <v>0</v>
       </c>
       <c r="L268">
-        <v>0.19791116938184</v>
+        <v>0.14034349866745699</v>
       </c>
       <c r="M268">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.3">
@@ -7283,19 +7289,19 @@
         <v>8.8998888888888903</v>
       </c>
       <c r="C269">
-        <v>0.213366341907399</v>
+        <v>0.22095298795663401</v>
       </c>
       <c r="D269">
-        <v>608213.86137926602</v>
+        <v>710417.44821588101</v>
       </c>
       <c r="E269">
-        <v>429945.45581475698</v>
+        <v>416228.05549917702</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269">
-        <v>86938.454080465497</v>
+        <v>204917.558309174</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -7304,16 +7310,16 @@
         <v>0</v>
       </c>
       <c r="J269">
-        <v>91329.951484042904</v>
+        <v>89271.834407529299</v>
       </c>
       <c r="K269">
         <v>0</v>
       </c>
       <c r="L269">
-        <v>0.197879450073316</v>
+        <v>0.140286778540576</v>
       </c>
       <c r="M269">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
@@ -7324,19 +7330,19 @@
         <v>8.9513333333333307</v>
       </c>
       <c r="C270">
-        <v>0.21459967336351099</v>
+        <v>0.222230172858117</v>
       </c>
       <c r="D270">
-        <v>618201.715093181</v>
+        <v>726054.02017469099</v>
       </c>
       <c r="E270">
-        <v>434624.68350596598</v>
+        <v>420756.72695950803</v>
       </c>
       <c r="F270">
         <v>0</v>
       </c>
       <c r="G270">
-        <v>91188.190960035194</v>
+        <v>214990.43169216599</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -7345,16 +7351,16 @@
         <v>0</v>
       </c>
       <c r="J270">
-        <v>92388.840627180296</v>
+        <v>90306.861523016298</v>
       </c>
       <c r="K270">
         <v>0</v>
       </c>
       <c r="L270">
-        <v>0.19784795027187199</v>
+        <v>0.14023044828987699</v>
       </c>
       <c r="M270">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
@@ -7365,19 +7371,19 @@
         <v>9.0027777777777693</v>
       </c>
       <c r="C271">
-        <v>0.215833004819623</v>
+        <v>0.22350735775960101</v>
       </c>
       <c r="D271">
-        <v>628381.17494098702</v>
+        <v>742135.35592659598</v>
       </c>
       <c r="E271">
-        <v>439327.69104827201</v>
+        <v>425308.400413964</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271">
-        <v>95599.651014944</v>
+        <v>225479.10129997501</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -7386,16 +7392,16 @@
         <v>0</v>
       </c>
       <c r="J271">
-        <v>93453.832877771201</v>
+        <v>91347.854212656093</v>
       </c>
       <c r="K271">
         <v>0</v>
       </c>
       <c r="L271">
-        <v>0.19781666719525301</v>
+        <v>0.14017450299387799</v>
       </c>
       <c r="M271">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
@@ -7406,19 +7412,19 @@
         <v>9.0542222222222204</v>
       </c>
       <c r="C272">
-        <v>0.21706633627573499</v>
+        <v>0.224784542661084</v>
       </c>
       <c r="D272">
-        <v>638753.78264361795</v>
+        <v>758667.11272948305</v>
       </c>
       <c r="E272">
-        <v>444054.46344337799</v>
+        <v>429883.06129987101</v>
       </c>
       <c r="F272">
         <v>0</v>
       </c>
       <c r="G272">
-        <v>100174.390964424</v>
+        <v>236389.238953163</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -7427,16 +7433,16 @@
         <v>0</v>
       </c>
       <c r="J272">
-        <v>94524.928235815198</v>
+        <v>92394.812476448496</v>
       </c>
       <c r="K272">
         <v>0</v>
       </c>
       <c r="L272">
-        <v>0.19778559811221999</v>
+        <v>0.14011893782107199</v>
       </c>
       <c r="M272">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.3">
@@ -7447,19 +7453,19 @@
         <v>9.1056666666666608</v>
       </c>
       <c r="C273">
-        <v>0.218299667731848</v>
+        <v>0.22606172756256701</v>
       </c>
       <c r="D273">
-        <v>649320.28174703196</v>
+        <v>775651.49355850404</v>
       </c>
       <c r="E273">
-        <v>448804.98579242802</v>
+        <v>434480.69515115698</v>
       </c>
       <c r="F273">
         <v>0</v>
       </c>
       <c r="G273">
-        <v>104913.16925329099</v>
+        <v>247723.062092954</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -7468,16 +7474,16 @@
         <v>0</v>
       </c>
       <c r="J273">
-        <v>95602.126701312402</v>
+        <v>93447.736314393595</v>
       </c>
       <c r="K273">
         <v>0</v>
       </c>
       <c r="L273">
-        <v>0.197754740341335</v>
+        <v>0.14006374802778199</v>
       </c>
       <c r="M273">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
@@ -7488,19 +7494,19 @@
         <v>9.1571111111111101</v>
       </c>
       <c r="C274">
-        <v>0.21953299918795999</v>
+        <v>0.227338912464051</v>
       </c>
       <c r="D274">
-        <v>660080.61489252199</v>
+        <v>793087.000251911</v>
       </c>
       <c r="E274">
-        <v>453579.24329478497</v>
+        <v>439101.28759716701</v>
       </c>
       <c r="F274">
         <v>0</v>
       </c>
       <c r="G274">
-        <v>109815.943323474</v>
+        <v>259479.08692825201</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -7509,16 +7515,16 @@
         <v>0</v>
       </c>
       <c r="J274">
-        <v>96685.4282742629</v>
+        <v>94506.6257264913</v>
       </c>
       <c r="K274">
         <v>0</v>
       </c>
       <c r="L274">
-        <v>0.197724091249771</v>
+        <v>0.140008928956073</v>
       </c>
       <c r="M274">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.3">
@@ -7529,19 +7535,19 @@
         <v>9.2085555555555505</v>
       </c>
       <c r="C275">
-        <v>0.220766330644072</v>
+        <v>0.22861609736553401</v>
       </c>
       <c r="D275">
-        <v>671033.96070214699</v>
+        <v>810968.33966011601</v>
       </c>
       <c r="E275">
-        <v>458377.22124682798</v>
+        <v>443744.82436149498</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>114881.90650065101</v>
+        <v>271652.03458587901</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -7550,16 +7556,16 @@
         <v>0</v>
       </c>
       <c r="J275">
-        <v>97774.832954666606</v>
+        <v>95571.480712741701</v>
       </c>
       <c r="K275">
         <v>0</v>
       </c>
       <c r="L275">
-        <v>0.19769364825216801</v>
+        <v>0.139954476031732</v>
       </c>
       <c r="M275">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
@@ -7570,19 +7576,19 @@
         <v>9.26</v>
       </c>
       <c r="C276">
-        <v>0.22199966210018399</v>
+        <v>0.229893282267018</v>
       </c>
       <c r="D276">
-        <v>682178.81242852099</v>
+        <v>829286.50210563501</v>
       </c>
       <c r="E276">
-        <v>463198.90504077601</v>
+        <v>448411.29126083502</v>
       </c>
       <c r="F276">
         <v>0</v>
       </c>
       <c r="G276">
-        <v>120109.566645221</v>
+        <v>284232.90957165498</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -7591,16 +7597,16 @@
         <v>0</v>
       </c>
       <c r="J276">
-        <v>98870.340742523593</v>
+        <v>96642.301273144796</v>
       </c>
       <c r="K276">
         <v>0</v>
       </c>
       <c r="L276">
-        <v>0.19766340880951</v>
+        <v>0.13990038476230299</v>
       </c>
       <c r="M276">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
@@ -7611,19 +7617,19 @@
         <v>9.3114444444444402</v>
       </c>
       <c r="C277">
-        <v>0.223232993556296</v>
+        <v>0.23117046716850101</v>
       </c>
       <c r="D277">
-        <v>693513.09856828197</v>
+        <v>848029.02425631299</v>
       </c>
       <c r="E277">
-        <v>468044.28016352502</v>
+        <v>453100.67420385801</v>
       </c>
       <c r="F277">
         <v>0</v>
       </c>
       <c r="G277">
-        <v>125496.86676692301</v>
+        <v>297209.26264475402</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -7632,16 +7638,16 @@
         <v>0</v>
       </c>
       <c r="J277">
-        <v>99971.951637833801</v>
+        <v>97719.087407700499</v>
       </c>
       <c r="K277">
         <v>0</v>
       </c>
       <c r="L277">
-        <v>0.19763337042804699</v>
+        <v>0.13984665073517799</v>
       </c>
       <c r="M277">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
@@ -7652,19 +7658,19 @@
         <v>9.3628888888888895</v>
       </c>
       <c r="C278">
-        <v>0.22446632501240801</v>
+        <v>0.23244765206998499</v>
       </c>
       <c r="D278">
-        <v>705034.34355456196</v>
+        <v>867180.43991009798</v>
       </c>
       <c r="E278">
-        <v>472913.33219551097</v>
+        <v>457812.95919010398</v>
       </c>
       <c r="F278">
         <v>0</v>
       </c>
       <c r="G278">
-        <v>131041.345718453</v>
+        <v>310565.64160358498</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -7673,16 +7679,16 @@
         <v>0</v>
       </c>
       <c r="J278">
-        <v>101079.665640597</v>
+        <v>98801.839116408897</v>
       </c>
       <c r="K278">
         <v>0</v>
       </c>
       <c r="L278">
-        <v>0.19760353065823599</v>
+        <v>0.13979326961574301</v>
       </c>
       <c r="M278">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.3">
@@ -7693,19 +7699,19 @@
         <v>9.4143333333333299</v>
       </c>
       <c r="C279">
-        <v>0.22569965646852</v>
+        <v>0.23372483697146801</v>
       </c>
       <c r="D279">
-        <v>716739.86454863497</v>
+        <v>886722.91259590304</v>
       </c>
       <c r="E279">
-        <v>477806.04680959397</v>
+        <v>462548.13230889599</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
       <c r="G279">
-        <v>136740.33498822601</v>
+        <v>324284.22388773703</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -7714,16 +7720,16 @@
         <v>0</v>
       </c>
       <c r="J279">
-        <v>102193.482750814</v>
+        <v>99890.556399269903</v>
       </c>
       <c r="K279">
         <v>0</v>
       </c>
       <c r="L279">
-        <v>0.197573887093725</v>
+        <v>0.13974023714558001</v>
       </c>
       <c r="M279">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
@@ -7734,19 +7740,19 @@
         <v>9.4657777777777703</v>
       </c>
       <c r="C280">
-        <v>0.22693298792463201</v>
+        <v>0.23500202187295099</v>
       </c>
       <c r="D280">
-        <v>728626.99837973097</v>
+        <v>906637.03389318194</v>
       </c>
       <c r="E280">
-        <v>482722.40976995497</v>
+        <v>467306.17973827</v>
       </c>
       <c r="F280">
         <v>0</v>
       </c>
       <c r="G280">
-        <v>142591.18564129199</v>
+        <v>338345.61489862797</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -7755,16 +7761,16 @@
         <v>0</v>
       </c>
       <c r="J280">
-        <v>103313.402968483</v>
+        <v>100985.23925628301</v>
       </c>
       <c r="K280">
         <v>0</v>
       </c>
       <c r="L280">
-        <v>0.19754443737035099</v>
+        <v>0.13968754914071699</v>
       </c>
       <c r="M280">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -7775,19 +7781,19 @@
         <v>9.5172222222222196</v>
       </c>
       <c r="C281">
-        <v>0.228166319380745</v>
+        <v>0.23627920677443501</v>
       </c>
       <c r="D281">
-        <v>740693.35097052902</v>
+        <v>926902.76167468203</v>
       </c>
       <c r="E281">
-        <v>487662.40693101898</v>
+        <v>472087.08774392901</v>
       </c>
       <c r="F281">
         <v>0</v>
       </c>
       <c r="G281">
-        <v>148591.51774590201</v>
+        <v>352729.78624330298</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -7796,16 +7802,16 @@
         <v>0</v>
       </c>
       <c r="J281">
-        <v>104439.426293607</v>
+        <v>102085.88768745</v>
       </c>
       <c r="K281">
         <v>0</v>
       </c>
       <c r="L281">
-        <v>0.19751517916518299</v>
+        <v>0.139635201489928</v>
       </c>
       <c r="M281">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
@@ -7816,19 +7822,19 @@
         <v>9.56866666666666</v>
       </c>
       <c r="C282">
-        <v>0.22939965083685701</v>
+        <v>0.23755639167591799</v>
       </c>
       <c r="D282">
-        <v>752937.06025691901</v>
+        <v>947500.46385546704</v>
       </c>
       <c r="E282">
-        <v>492626.02423639002</v>
+        <v>476890.84267820901</v>
       </c>
       <c r="F282">
         <v>0</v>
       </c>
       <c r="G282">
-        <v>154739.48329434401</v>
+        <v>367417.11948448798</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -7837,16 +7843,16 @@
         <v>0</v>
       </c>
       <c r="J282">
-        <v>105571.552726183</v>
+        <v>103192.501692769</v>
       </c>
       <c r="K282">
         <v>0</v>
       </c>
       <c r="L282">
-        <v>0.19748611019557799</v>
+        <v>0.13958319015308199</v>
       </c>
       <c r="M282">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
@@ -7857,19 +7863,19 @@
         <v>9.6201111111111093</v>
       </c>
       <c r="C283">
-        <v>0.230632982292969</v>
+        <v>0.23883357657740201</v>
       </c>
       <c r="D283">
-        <v>765357.06276127498</v>
+        <v>968412.02643174306</v>
       </c>
       <c r="E283">
-        <v>497613.24771781301</v>
+        <v>481717.43097906501</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283">
-        <v>161034.03277724801</v>
+        <v>382389.51418043702</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -7878,16 +7884,16 @@
         <v>0</v>
       </c>
       <c r="J283">
-        <v>106709.78226621301</v>
+        <v>104305.08127224</v>
       </c>
       <c r="K283">
         <v>0</v>
       </c>
       <c r="L283">
-        <v>0.197457228218271</v>
+        <v>0.13953151115953699</v>
       </c>
       <c r="M283">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
@@ -7898,19 +7904,19 @@
         <v>9.6715555555555497</v>
       </c>
       <c r="C284">
-        <v>0.23186631374908101</v>
+        <v>0.24011076147888499</v>
       </c>
       <c r="D284">
-        <v>777953.35366859206</v>
+        <v>989621.98023705801</v>
       </c>
       <c r="E284">
-        <v>502624.06349414302</v>
+        <v>486566.83916907501</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
       <c r="G284">
-        <v>167475.175260752</v>
+        <v>397631.51464211702</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -7919,16 +7925,16 @@
         <v>0</v>
       </c>
       <c r="J284">
-        <v>107854.114913696</v>
+        <v>105423.626425865</v>
       </c>
       <c r="K284">
         <v>0</v>
       </c>
       <c r="L284">
-        <v>0.19742853102848701</v>
+        <v>0.139480160606579</v>
       </c>
       <c r="M284">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.3">
@@ -7939,19 +7945,19 @@
         <v>9.7230000000000008</v>
       </c>
       <c r="C285">
-        <v>0.233099645205193</v>
+        <v>0.24138794638036901</v>
       </c>
       <c r="D285">
-        <v>790727.23050053301</v>
+        <v>1011118.5993452501</v>
       </c>
       <c r="E285">
-        <v>507658.45777034003</v>
+        <v>491439.05385446001</v>
       </c>
       <c r="F285">
         <v>0</v>
       </c>
       <c r="G285">
-        <v>174064.22206155999</v>
+        <v>413131.40833715</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -7960,16 +7966,16 @@
         <v>0</v>
       </c>
       <c r="J285">
-        <v>109004.550668632</v>
+        <v>106548.137153642</v>
       </c>
       <c r="K285">
         <v>0</v>
       </c>
       <c r="L285">
-        <v>0.19740001645908201</v>
+        <v>0.13942913465790499</v>
       </c>
       <c r="M285">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
@@ -7980,19 +7986,19 @@
         <v>9.7744444444444394</v>
       </c>
       <c r="C286">
-        <v>0.23433297666130501</v>
+        <v>0.24266513128185199</v>
       </c>
       <c r="D286">
-        <v>803681.51125351805</v>
+        <v>1032894.92555584</v>
       </c>
       <c r="E286">
-        <v>512716.41683647601</v>
+        <v>496334.06172412401</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
       <c r="G286">
-        <v>180804.00488601901</v>
+        <v>428882.25037614402</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -8001,16 +8007,16 @@
         <v>0</v>
       </c>
       <c r="J286">
-        <v>110161.089531021</v>
+        <v>107678.613455571</v>
       </c>
       <c r="K286">
         <v>0</v>
       </c>
       <c r="L286">
-        <v>0.19737168237969999</v>
+        <v>0.13937842954214499</v>
       </c>
       <c r="M286">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
@@ -8021,19 +8027,19 @@
         <v>9.8258888888888904</v>
       </c>
       <c r="C287">
-        <v>0.23556630811741699</v>
+        <v>0.24394231618333601</v>
       </c>
       <c r="D287">
-        <v>816820.71909062203</v>
+        <v>1054949.67776287</v>
       </c>
       <c r="E287">
-        <v>517797.927066762</v>
+        <v>501251.84954869997</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
       <c r="G287">
-        <v>187699.06052299499</v>
+        <v>444882.77288252098</v>
       </c>
       <c r="H287">
         <v>0</v>
@@ -8042,16 +8048,16 @@
         <v>0</v>
       </c>
       <c r="J287">
-        <v>111323.731500864</v>
+        <v>108815.055331654</v>
       </c>
       <c r="K287">
         <v>0</v>
       </c>
       <c r="L287">
-        <v>0.197343526695964</v>
+        <v>0.13932804155143</v>
       </c>
       <c r="M287">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
@@ -8062,19 +8068,19 @@
         <v>9.8773333333333309</v>
       </c>
       <c r="C288">
-        <v>0.23679963957353001</v>
+        <v>0.24521950108481899</v>
       </c>
       <c r="D288">
-        <v>830151.22724594502</v>
+        <v>1077288.01181152</v>
       </c>
       <c r="E288">
-        <v>522902.974918589</v>
+        <v>506192.40417962702</v>
       </c>
       <c r="F288">
         <v>0</v>
       </c>
       <c r="G288">
-        <v>194755.77574919499</v>
+        <v>461138.14485000703</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -8083,16 +8089,16 @@
         <v>0</v>
       </c>
       <c r="J288">
-        <v>112492.47657816</v>
+        <v>109957.462781889</v>
       </c>
       <c r="K288">
         <v>0</v>
       </c>
       <c r="L288">
-        <v>0.19731554734867701</v>
+        <v>0.13927796703999301</v>
       </c>
       <c r="M288">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
@@ -8103,19 +8109,19 @@
         <v>9.9287777777777695</v>
       </c>
       <c r="C289">
-        <v>0.23803297102964199</v>
+        <v>0.24649668598630201</v>
       </c>
       <c r="D289">
-        <v>843681.35958455899</v>
+        <v>1099922.1050426101</v>
       </c>
       <c r="E289">
-        <v>528031.54693158402</v>
+        <v>511155.71254822501</v>
       </c>
       <c r="F289">
         <v>0</v>
       </c>
       <c r="G289">
-        <v>201982.48789006399</v>
+        <v>477660.55668810999</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -8124,16 +8130,16 @@
         <v>0</v>
       </c>
       <c r="J289">
-        <v>113667.324762909</v>
+        <v>111105.83580627599</v>
       </c>
       <c r="K289">
         <v>0</v>
       </c>
       <c r="L289">
-        <v>0.19728774231305199</v>
+        <v>0.13922820242280801</v>
       </c>
       <c r="M289">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
@@ -8144,19 +8150,19 @@
         <v>9.9802222222222206</v>
       </c>
       <c r="C290">
-        <v>0.23926630248575401</v>
+        <v>0.24777387088778599</v>
       </c>
       <c r="D290">
-        <v>857421.44412286999</v>
+        <v>1122871.5493276899</v>
       </c>
       <c r="E290">
-        <v>533183.62972668605</v>
+        <v>516141.76166480302</v>
       </c>
       <c r="F290">
         <v>0</v>
       </c>
       <c r="G290">
-        <v>209389.53834107099</v>
+        <v>494469.61325807602</v>
       </c>
       <c r="H290">
         <v>0</v>
@@ -8165,16 +8171,16 @@
         <v>0</v>
       </c>
       <c r="J290">
-        <v>114848.276055111</v>
+        <v>112260.17440481699</v>
       </c>
       <c r="K290">
         <v>0</v>
       </c>
       <c r="L290">
-        <v>0.197260109597963</v>
+        <v>0.139178744174275</v>
       </c>
       <c r="M290">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
@@ -8185,19 +8191,19 @@
         <v>10.031666666666601</v>
       </c>
       <c r="C291">
-        <v>0.24049963394186599</v>
+        <v>0.249051055789269</v>
       </c>
       <c r="D291">
-        <v>871383.81862058898</v>
+        <v>1146163.5461716</v>
       </c>
       <c r="E291">
-        <v>538359.21000523202</v>
+        <v>521150.53861777001</v>
       </c>
       <c r="F291">
         <v>0</v>
       </c>
       <c r="G291">
-        <v>216989.27816058899</v>
+        <v>511592.52897632</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -8206,16 +8212,16 @@
         <v>0</v>
       </c>
       <c r="J291">
-        <v>116035.330454767</v>
+        <v>113420.47857751</v>
       </c>
       <c r="K291">
         <v>0</v>
       </c>
       <c r="L291">
-        <v>0.197232647245216</v>
+        <v>0.139129588826926</v>
       </c>
       <c r="M291">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
@@ -8226,19 +8232,19 @@
         <v>10.0831111111111</v>
       </c>
       <c r="C292">
-        <v>0.24173296539797801</v>
+        <v>0.25032824069075299</v>
       </c>
       <c r="D292">
-        <v>885582.78899178898</v>
+        <v>1169832.90662161</v>
       </c>
       <c r="E292">
-        <v>543558.27454805898</v>
+        <v>526182.03057275899</v>
       </c>
       <c r="F292">
         <v>0</v>
       </c>
       <c r="G292">
-        <v>224796.02648185301</v>
+        <v>529064.127724497</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -8247,16 +8253,16 @@
         <v>0</v>
       </c>
       <c r="J292">
-        <v>117228.487961876</v>
+        <v>114586.74832435499</v>
       </c>
       <c r="K292">
         <v>0</v>
       </c>
       <c r="L292">
-        <v>0.19720535332883199</v>
+        <v>0.13908073297017801</v>
       </c>
       <c r="M292">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -8267,19 +8273,19 @@
         <v>10.134555555555499</v>
       </c>
       <c r="C293">
-        <v>0.24296629685408999</v>
+        <v>0.25160542559223598</v>
       </c>
       <c r="D293">
-        <v>900034.54266092903</v>
+        <v>1193921.8666169101</v>
       </c>
       <c r="E293">
-        <v>548780.81021462602</v>
+        <v>531236.224771776</v>
       </c>
       <c r="F293">
         <v>0</v>
       </c>
       <c r="G293">
-        <v>232825.98386986501</v>
+        <v>546926.65819978504</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -8288,16 +8294,16 @@
         <v>0</v>
       </c>
       <c r="J293">
-        <v>118427.748576438</v>
+        <v>115758.983645354</v>
       </c>
       <c r="K293">
         <v>0</v>
       </c>
       <c r="L293">
-        <v>0.19717822595436099</v>
+        <v>0.13903217324910799</v>
       </c>
       <c r="M293">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
@@ -8308,19 +8314,19 @@
         <v>10.186</v>
       </c>
       <c r="C294">
-        <v>0.244199628310202</v>
+        <v>0.25288261049372002</v>
       </c>
       <c r="D294">
-        <v>914757.02005513501</v>
+        <v>1218479.7345700201</v>
       </c>
       <c r="E294">
-        <v>554026.80394213996</v>
+        <v>536313.108532354</v>
       </c>
       <c r="F294">
         <v>0</v>
       </c>
       <c r="G294">
-        <v>241097.10381454101</v>
+        <v>565229.44149716804</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -8329,16 +8335,16 @@
         <v>0</v>
       </c>
       <c r="J294">
-        <v>119633.11229845299</v>
+        <v>116937.184540505</v>
       </c>
       <c r="K294">
         <v>0</v>
       </c>
       <c r="L294">
-        <v>0.19715126325820301</v>
+        <v>0.13898390636327601</v>
       </c>
       <c r="M294">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
@@ -8349,19 +8355,19 @@
         <v>10.237444444444399</v>
       </c>
       <c r="C295">
-        <v>0.24543295976631399</v>
+        <v>0.254159795395203</v>
       </c>
       <c r="D295">
-        <v>929769.74815491203</v>
+        <v>1243562.39214047</v>
       </c>
       <c r="E295">
-        <v>559296.24274470797</v>
+        <v>541412.66924672097</v>
       </c>
       <c r="F295">
         <v>0</v>
       </c>
       <c r="G295">
-        <v>249628.926282281</v>
+        <v>584028.37188394205</v>
       </c>
       <c r="H295">
         <v>0</v>
@@ -8370,16 +8376,16 @@
         <v>0</v>
       </c>
       <c r="J295">
-        <v>120844.579127922</v>
+        <v>118121.351009808</v>
       </c>
       <c r="K295">
         <v>0</v>
       </c>
       <c r="L295">
-        <v>0.19712446340695899</v>
+        <v>0.13893592906555699</v>
       </c>
       <c r="M295">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
@@ -8390,19 +8396,19 @@
         <v>10.288888888888801</v>
       </c>
       <c r="C296">
-        <v>0.246666291222427</v>
+        <v>0.25543698029668599</v>
       </c>
       <c r="D296">
-        <v>945093.64043190901</v>
+        <v>1269231.6712990401</v>
       </c>
       <c r="E296">
-        <v>564589.11371249298</v>
+        <v>546534.89438098797</v>
       </c>
       <c r="F296">
         <v>0</v>
       </c>
       <c r="G296">
-        <v>258442.377654571</v>
+        <v>603385.29386478802</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -8411,16 +8417,16 @@
         <v>0</v>
       </c>
       <c r="J296">
-        <v>122062.14906484399</v>
+        <v>119311.48305326499</v>
       </c>
       <c r="K296">
         <v>0</v>
       </c>
       <c r="L296">
-        <v>0.19709782459678299</v>
+        <v>0.138888238161026</v>
       </c>
       <c r="M296">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
@@ -8431,19 +8437,19 @@
         <v>10.3403333333333</v>
       </c>
       <c r="C297">
-        <v>0.24789962267853899</v>
+        <v>0.25671416519816997</v>
       </c>
       <c r="D297">
-        <v>960750.76762060705</v>
+        <v>1295554.6310372599</v>
       </c>
       <c r="E297">
-        <v>569905.40401088598</v>
+        <v>551679.77147434</v>
       </c>
       <c r="F297">
         <v>0</v>
       </c>
       <c r="G297">
-        <v>267559.54150050197</v>
+        <v>623367.27889204503</v>
       </c>
       <c r="H297">
         <v>0</v>
@@ -8452,16 +8458,16 @@
         <v>0</v>
       </c>
       <c r="J297">
-        <v>123285.82210921901</v>
+        <v>120507.580670874</v>
       </c>
       <c r="K297">
         <v>0</v>
       </c>
       <c r="L297">
-        <v>0.19707134505276799</v>
+        <v>0.13884083050585599</v>
       </c>
       <c r="M297">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
@@ -8472,19 +8478,19 @@
         <v>10.391777777777699</v>
       </c>
       <c r="C298">
-        <v>0.249132954134651</v>
+        <v>0.25799135009965302</v>
       </c>
       <c r="D298">
-        <v>976764.10365674598</v>
+        <v>1322602.7557453201</v>
       </c>
       <c r="E298">
-        <v>575245.10087969503</v>
+        <v>556847.28813824896</v>
       </c>
       <c r="F298">
         <v>0</v>
       </c>
       <c r="G298">
-        <v>277003.40451600298</v>
+        <v>644045.82374443999</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -8493,16 +8499,16 @@
         <v>0</v>
       </c>
       <c r="J298">
-        <v>124515.59826104699</v>
+        <v>121709.643862635</v>
       </c>
       <c r="K298">
         <v>0</v>
       </c>
       <c r="L298">
-        <v>0.19704502302833499</v>
+        <v>0.13879370300625199</v>
       </c>
       <c r="M298">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
@@ -8513,19 +8519,19 @@
         <v>10.4432222222222</v>
       </c>
       <c r="C299">
-        <v>0.25036628559076302</v>
+        <v>0.259268535001137</v>
       </c>
       <c r="D299">
-        <v>993157.25083601905</v>
+        <v>1350451.0947521001</v>
       </c>
       <c r="E299">
-        <v>580608.19163234101</v>
+        <v>562037.432055693</v>
       </c>
       <c r="F299">
         <v>0</v>
       </c>
       <c r="G299">
-        <v>286797.58168334898</v>
+        <v>665495.99006786104</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -8534,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="J299">
-        <v>125751.477520328</v>
+        <v>122917.67262855</v>
       </c>
       <c r="K299">
         <v>0</v>
       </c>
       <c r="L299">
-        <v>0.19701885680464501</v>
+        <v>0.13874685261740899</v>
       </c>
       <c r="M299">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.3">
@@ -8554,19 +8560,19 @@
         <v>10.4946666666666</v>
       </c>
       <c r="C300">
-        <v>0.251599617046875</v>
+        <v>0.26054571990261999</v>
       </c>
       <c r="D300">
-        <v>1009954.14787386</v>
+        <v>1379177.3592262201</v>
       </c>
       <c r="E300">
-        <v>585994.66365507198</v>
+        <v>567250.19098039297</v>
       </c>
       <c r="F300">
         <v>0</v>
       </c>
       <c r="G300">
-        <v>296966.024331728</v>
+        <v>687795.50127721799</v>
       </c>
       <c r="H300">
         <v>0</v>
@@ -8575,16 +8581,16 @@
         <v>0</v>
       </c>
       <c r="J300">
-        <v>126993.459887063</v>
+        <v>124131.66696861701</v>
       </c>
       <c r="K300">
         <v>0</v>
       </c>
       <c r="L300">
-        <v>0.19699284469002101</v>
+        <v>0.13870027634250301</v>
       </c>
       <c r="M300">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
@@ -8595,19 +8601,19 @@
         <v>10.546111111111101</v>
       </c>
       <c r="C301">
-        <v>0.25283294850298699</v>
+        <v>0.26182290480410397</v>
       </c>
       <c r="D301">
-        <v>1027178.76414963</v>
+        <v>1408860.9890085601</v>
       </c>
       <c r="E301">
-        <v>591404.50440618396</v>
+        <v>572485.55273605394</v>
       </c>
       <c r="F301">
         <v>0</v>
       </c>
       <c r="G301">
-        <v>307532.714382198</v>
+        <v>711023.80938967306</v>
       </c>
       <c r="H301">
         <v>0</v>
@@ -8616,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="J301">
-        <v>128241.545361251</v>
+        <v>125351.626882836</v>
       </c>
       <c r="K301">
         <v>0</v>
       </c>
       <c r="L301">
-        <v>0.19696698501939</v>
+        <v>0.13865397123169601</v>
       </c>
       <c r="M301">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.3">
@@ -8636,19 +8642,19 @@
         <v>10.5975555555555</v>
       </c>
       <c r="C302">
-        <v>0.25406627995909897</v>
+        <v>0.26310008970558701</v>
       </c>
       <c r="D302">
-        <v>1044854.78305728</v>
+        <v>1439582.1983757201</v>
       </c>
       <c r="E302">
-        <v>596837.70141525904</v>
+        <v>577743.50521562598</v>
       </c>
       <c r="F302">
         <v>0</v>
       </c>
       <c r="G302">
-        <v>318521.347699131</v>
+        <v>735261.14078888996</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -8657,16 +8663,16 @@
         <v>0</v>
       </c>
       <c r="J302">
-        <v>129495.733942893</v>
+        <v>126577.55237120901</v>
       </c>
       <c r="K302">
         <v>0</v>
       </c>
       <c r="L302">
-        <v>0.19694127615373699</v>
+        <v>0.13860793438117899</v>
       </c>
       <c r="M302">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.3">
@@ -8677,19 +8683,19 @@
         <v>10.648999999999999</v>
       </c>
       <c r="C303">
-        <v>0.25529961141521201</v>
+        <v>0.264377274607071</v>
       </c>
       <c r="D303">
-        <v>1063005.27710906</v>
+        <v>1471421.0065500201</v>
       </c>
       <c r="E303">
-        <v>602294.24228241004</v>
+        <v>583024.03638057201</v>
       </c>
       <c r="F303">
         <v>0</v>
       </c>
       <c r="G303">
-        <v>329955.00919466902</v>
+        <v>760587.52673571801</v>
       </c>
       <c r="H303">
         <v>0</v>
@@ -8698,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="J303">
-        <v>130756.02563198699</v>
+        <v>127809.44343373401</v>
       </c>
       <c r="K303">
         <v>0</v>
       </c>
       <c r="L303">
-        <v>0.19691571647957001</v>
+        <v>0.138562162932231</v>
       </c>
       <c r="M303">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.3">
@@ -8718,19 +8724,19 @@
         <v>10.7004444444444</v>
       </c>
       <c r="C304">
-        <v>0.256532942871324</v>
+        <v>0.26565445950855399</v>
       </c>
       <c r="D304">
-        <v>1081652.3772839601</v>
+        <v>1504456.25622411</v>
       </c>
       <c r="E304">
-        <v>607774.11467754305</v>
+        <v>588327.134260147</v>
       </c>
       <c r="F304">
         <v>0</v>
       </c>
       <c r="G304">
-        <v>341855.84217788099</v>
+        <v>787081.82189356</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -8739,16 +8745,16 @@
         <v>0</v>
       </c>
       <c r="J304">
-        <v>132022.420428535</v>
+        <v>129047.300070411</v>
       </c>
       <c r="K304">
         <v>0</v>
       </c>
       <c r="L304">
-        <v>0.196890304408401</v>
+        <v>0.138516654070305</v>
       </c>
       <c r="M304">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.3">
@@ -8759,19 +8765,19 @@
         <v>10.7518888888888</v>
       </c>
       <c r="C305">
-        <v>0.25776627432743598</v>
+        <v>0.26693164441003697</v>
       </c>
       <c r="D305">
-        <v>1100816.93909873</v>
+        <v>1538764.62162667</v>
       </c>
       <c r="E305">
-        <v>613277.30633962597</v>
+        <v>593652.78695068904</v>
       </c>
       <c r="F305">
         <v>0</v>
       </c>
       <c r="G305">
-        <v>354244.71442657401</v>
+        <v>814820.71239474299</v>
       </c>
       <c r="H305">
         <v>0</v>
@@ -8780,16 +8786,16 @@
         <v>0</v>
       </c>
       <c r="J305">
-        <v>133294.91833253601</v>
+        <v>130291.122281241</v>
       </c>
       <c r="K305">
         <v>0</v>
       </c>
       <c r="L305">
-        <v>0.196865038376244</v>
+        <v>0.13847140502413599</v>
       </c>
       <c r="M305">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -8800,19 +8806,19 @@
         <v>10.803333333333301</v>
       </c>
       <c r="C306">
-        <v>0.25899960578354803</v>
+        <v>0.26820882931152101</v>
       </c>
       <c r="D306">
-        <v>1120518.2080123499</v>
+        <v>1574419.6068075199</v>
       </c>
       <c r="E306">
-        <v>618803.80507596803</v>
+        <v>599000.98261492397</v>
       </c>
       <c r="F306">
         <v>0</v>
       </c>
       <c r="G306">
-        <v>367140.8835924</v>
+        <v>843877.71412637597</v>
       </c>
       <c r="H306">
         <v>0</v>
@@ -8821,16 +8827,16 @@
         <v>0</v>
       </c>
       <c r="J306">
-        <v>134573.51934398999</v>
+        <v>131540.91006622399</v>
       </c>
       <c r="K306">
         <v>0</v>
       </c>
       <c r="L306">
-        <v>0.196839916843115</v>
+        <v>0.138426413064868</v>
       </c>
       <c r="M306">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
@@ -8841,19 +8847,19 @@
         <v>10.8547777777777</v>
       </c>
       <c r="C307">
-        <v>0.26023293723966001</v>
+        <v>0.269486014213004</v>
       </c>
       <c r="D307">
-        <v>1140773.4870450201</v>
+        <v>1611490.53488384</v>
       </c>
       <c r="E307">
-        <v>624353.59876151802</v>
+        <v>604371.70948127401</v>
       </c>
       <c r="F307">
         <v>0</v>
       </c>
       <c r="G307">
-        <v>380561.66482060897</v>
+        <v>874322.16197720601</v>
       </c>
       <c r="H307">
         <v>0</v>
@@ -8862,16 +8868,16 @@
         <v>0</v>
       </c>
       <c r="J307">
-        <v>135858.22346289799</v>
+        <v>132796.66342535999</v>
       </c>
       <c r="K307">
         <v>0</v>
       </c>
       <c r="L307">
-        <v>0.196814938292556</v>
+        <v>0.13838167550521299</v>
       </c>
       <c r="M307">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
@@ -8882,19 +8888,19 @@
         <v>10.906222222222199</v>
       </c>
       <c r="C308">
-        <v>0.261466268695772</v>
+        <v>0.27076319911448798</v>
       </c>
       <c r="D308">
-        <v>1161597.80988135</v>
+        <v>1650041.5299174399</v>
       </c>
       <c r="E308">
-        <v>629926.67533816001</v>
+        <v>609764.95584318298</v>
       </c>
       <c r="F308">
         <v>0</v>
       </c>
       <c r="G308">
-        <v>394522.10385393503</v>
+        <v>906218.19171560905</v>
       </c>
       <c r="H308">
         <v>0</v>
@@ -8903,16 +8909,16 @@
         <v>0</v>
       </c>
       <c r="J308">
-        <v>137149.03068925801</v>
+        <v>134058.382358648</v>
       </c>
       <c r="K308">
         <v>0</v>
       </c>
       <c r="L308">
-        <v>0.196790101231164</v>
+        <v>0.138337189698616</v>
       </c>
       <c r="M308">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
@@ -8923,19 +8929,19 @@
         <v>10.957666666666601</v>
       </c>
       <c r="C309">
-        <v>0.26269960015188398</v>
+        <v>0.27204038401597103</v>
       </c>
       <c r="D309">
-        <v>1183003.6232016101</v>
+        <v>1690130.49479126</v>
       </c>
       <c r="E309">
-        <v>635523.02281403099</v>
+        <v>615180.71005844895</v>
       </c>
       <c r="F309">
         <v>0</v>
       </c>
       <c r="G309">
-        <v>409034.659364508</v>
+        <v>939623.71786672401</v>
       </c>
       <c r="H309">
         <v>0</v>
@@ -8944,16 +8950,16 @@
         <v>0</v>
       </c>
       <c r="J309">
-        <v>138445.941023072</v>
+        <v>135326.06686608901</v>
       </c>
       <c r="K309">
         <v>0</v>
       </c>
       <c r="L309">
-        <v>0.19676540418813299</v>
+        <v>0.13829295303845099</v>
       </c>
       <c r="M309">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
@@ -8964,19 +8970,19 @@
         <v>11.0091111111111</v>
       </c>
       <c r="C310">
-        <v>0.26393293160799702</v>
+        <v>0.27331756891745501</v>
       </c>
       <c r="D310">
-        <v>1205000.4825071299</v>
+        <v>1731808.09078304</v>
       </c>
       <c r="E310">
-        <v>641142.62926284596</v>
+        <v>620618.96054856502</v>
       </c>
       <c r="F310">
         <v>0</v>
       </c>
       <c r="G310">
-        <v>424108.89877994498</v>
+        <v>974589.41328679305</v>
       </c>
       <c r="H310">
         <v>0</v>
@@ -8985,16 +8991,16 @@
         <v>0</v>
       </c>
       <c r="J310">
-        <v>139748.95446433901</v>
+        <v>136599.71694768299</v>
       </c>
       <c r="K310">
         <v>0</v>
       </c>
       <c r="L310">
-        <v>0.19674084571480699</v>
+        <v>0.13824896295723499</v>
       </c>
       <c r="M310">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
@@ -9005,19 +9011,19 @@
         <v>11.060555555555499</v>
       </c>
       <c r="C311">
-        <v>0.26516626306410901</v>
+        <v>0.274594753818938</v>
       </c>
       <c r="D311">
-        <v>1227594.7662313201</v>
+        <v>1775116.72732812</v>
       </c>
       <c r="E311">
-        <v>646785.482823228</v>
+        <v>626079.69579807494</v>
       </c>
       <c r="F311">
         <v>0</v>
       </c>
       <c r="G311">
-        <v>439751.21239503101</v>
+        <v>1011157.6989266101</v>
       </c>
       <c r="H311">
         <v>0</v>
@@ -9026,16 +9032,16 @@
         <v>0</v>
       </c>
       <c r="J311">
-        <v>141058.07101305999</v>
+        <v>137879.33260342901</v>
       </c>
       <c r="K311">
         <v>0</v>
       </c>
       <c r="L311">
-        <v>0.196716424384245</v>
+        <v>0.13820521692585799</v>
       </c>
       <c r="M311">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.3">
@@ -9046,19 +9052,19 @@
         <v>11.112</v>
       </c>
       <c r="C312">
-        <v>0.26639959452022099</v>
+        <v>0.27587193872042098</v>
       </c>
       <c r="D312">
-        <v>1250789.4134089299</v>
+        <v>1820089.5735301899</v>
       </c>
       <c r="E312">
-        <v>652451.57169805502</v>
+        <v>631562.90435393702</v>
       </c>
       <c r="F312">
         <v>0</v>
       </c>
       <c r="G312">
-        <v>455964.55104164698</v>
+        <v>1049361.7553429201</v>
       </c>
       <c r="H312">
         <v>0</v>
@@ -9067,16 +9073,16 @@
         <v>0</v>
       </c>
       <c r="J312">
-        <v>142373.290669234</v>
+        <v>139164.913833328</v>
       </c>
       <c r="K312">
         <v>0</v>
       </c>
       <c r="L312">
-        <v>0.196692138790793</v>
+        <v>0.13816171245283301</v>
       </c>
       <c r="M312">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
@@ -9087,19 +9093,19 @@
         <v>11.1634444444444</v>
       </c>
       <c r="C313">
-        <v>0.26763292597633298</v>
+        <v>0.27714912362190502</v>
       </c>
       <c r="D313">
-        <v>1274583.6905656001</v>
+        <v>1866749.6061132399</v>
       </c>
       <c r="E313">
-        <v>658140.88415381103</v>
+        <v>637068.57482488698</v>
       </c>
       <c r="F313">
         <v>0</v>
       </c>
       <c r="G313">
-        <v>472748.19297893503</v>
+        <v>1089224.5706509801</v>
       </c>
       <c r="H313">
         <v>0</v>
@@ -9108,16 +9114,16 @@
         <v>0</v>
       </c>
       <c r="J313">
-        <v>143694.61343286099</v>
+        <v>140456.46063737999</v>
       </c>
       <c r="K313">
         <v>0</v>
       </c>
       <c r="L313">
-        <v>0.19666798754967599</v>
+        <v>0.13811844708356499</v>
       </c>
       <c r="M313">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
@@ -9128,19 +9134,19 @@
         <v>11.214888888888799</v>
       </c>
       <c r="C314">
-        <v>0.26886625743244502</v>
+        <v>0.27842630852338801</v>
       </c>
       <c r="D314">
-        <v>1298972.99374134</v>
+        <v>1915108.71149743</v>
       </c>
       <c r="E314">
-        <v>663853.40851995</v>
+        <v>642596.69588083006</v>
       </c>
       <c r="F314">
         <v>0</v>
       </c>
       <c r="G314">
-        <v>490097.54591745703</v>
+        <v>1130758.0426010101</v>
       </c>
       <c r="H314">
         <v>0</v>
@@ -9149,16 +9155,16 @@
         <v>0</v>
       </c>
       <c r="J314">
-        <v>145022.03930394101</v>
+        <v>141753.97301558399</v>
       </c>
       <c r="K314">
         <v>0</v>
       </c>
       <c r="L314">
-        <v>0.19664396929658501</v>
+        <v>0.13807541839963899</v>
       </c>
       <c r="M314">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.3">
@@ -9169,19 +9175,19 @@
         <v>11.2663333333333</v>
       </c>
       <c r="C315">
-        <v>0.27009958888855701</v>
+        <v>0.279703493424872</v>
       </c>
       <c r="D315">
-        <v>1323948.69163539</v>
+        <v>1965166.8623140601</v>
       </c>
       <c r="E315">
-        <v>669589.13318826596</v>
+        <v>648147.25625222304</v>
       </c>
       <c r="F315">
         <v>0</v>
       </c>
       <c r="G315">
-        <v>508003.990164658</v>
+        <v>1173962.1550938999</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -9190,16 +9196,16 @@
         <v>0</v>
       </c>
       <c r="J315">
-        <v>146355.56828247401</v>
+        <v>143057.450967941</v>
       </c>
       <c r="K315">
         <v>0</v>
       </c>
       <c r="L315">
-        <v>0.19662008268728701</v>
+        <v>0.13803262401812</v>
       </c>
       <c r="M315">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
@@ -9210,19 +9216,19 @@
         <v>11.3177777777777</v>
       </c>
       <c r="C316">
-        <v>0.27133292034466899</v>
+        <v>0.28098067832635498</v>
       </c>
       <c r="D316">
-        <v>1349498.01572116</v>
+        <v>2016911.39074798</v>
       </c>
       <c r="E316">
-        <v>675348.04661227902</v>
+        <v>653720.24472947803</v>
       </c>
       <c r="F316">
         <v>0</v>
       </c>
       <c r="G316">
-        <v>526454.76874041895</v>
+        <v>1218824.25152405</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -9231,16 +9237,16 @@
         <v>0</v>
       </c>
       <c r="J316">
-        <v>147695.200368461</v>
+        <v>144366.89449445001</v>
       </c>
       <c r="K316">
         <v>0</v>
       </c>
       <c r="L316">
-        <v>0.19659632639723601</v>
+        <v>0.13799006159087199</v>
       </c>
       <c r="M316">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.3">
@@ -9251,19 +9257,19 @@
         <v>11.3692222222222</v>
       </c>
       <c r="C317">
-        <v>0.27256625180078098</v>
+        <v>0.28225786322783902</v>
       </c>
       <c r="D317">
-        <v>1375604.0028053501</v>
+        <v>2070316.38242327</v>
       </c>
       <c r="E317">
-        <v>681130.13730662002</v>
+        <v>659315.65016236599</v>
       </c>
       <c r="F317">
         <v>0</v>
       </c>
       <c r="G317">
-        <v>545432.92993682798</v>
+        <v>1265318.42866579</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -9272,16 +9278,16 @@
         <v>0</v>
       </c>
       <c r="J317">
-        <v>149040.93556190099</v>
+        <v>145682.30359511299</v>
       </c>
       <c r="K317">
         <v>0</v>
       </c>
       <c r="L317">
-        <v>0.19657269912119801</v>
+        <v>0.13794772880389899</v>
       </c>
       <c r="M317">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.3">
@@ -9292,19 +9298,19 @@
         <v>11.4206666666666</v>
       </c>
       <c r="C318">
-        <v>0.27379958325689402</v>
+        <v>0.28353504812932201</v>
       </c>
       <c r="D318">
-        <v>1402245.49488151</v>
+        <v>2125342.2149729198</v>
       </c>
       <c r="E318">
-        <v>686935.39384643396</v>
+        <v>664933.46145943401</v>
       </c>
       <c r="F318">
         <v>0</v>
       </c>
       <c r="G318">
-        <v>564917.32717228599</v>
+        <v>1313405.0752435499</v>
       </c>
       <c r="H318">
         <v>0</v>
@@ -9313,16 +9319,16 @@
         <v>0</v>
       </c>
       <c r="J318">
-        <v>150392.77386279401</v>
+        <v>147003.678269928</v>
       </c>
       <c r="K318">
         <v>0</v>
       </c>
       <c r="L318">
-        <v>0.196549199572883</v>
+        <v>0.13790562337668799</v>
       </c>
       <c r="M318">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.3">
@@ -9333,19 +9339,19 @@
         <v>11.472111111111101</v>
       </c>
       <c r="C319">
-        <v>0.275032914713006</v>
+        <v>0.284812233030805</v>
       </c>
       <c r="D319">
-        <v>1429397.2002544601</v>
+        <v>2181935.2648319001</v>
       </c>
       <c r="E319">
-        <v>692763.80486678204</v>
+        <v>670573.66758743103</v>
       </c>
       <c r="F319">
         <v>0</v>
       </c>
       <c r="G319">
-        <v>584882.68011654099</v>
+        <v>1363030.5787255799</v>
       </c>
       <c r="H319">
         <v>0</v>
@@ -9354,16 +9360,16 @@
         <v>0</v>
       </c>
       <c r="J319">
-        <v>151750.71527114001</v>
+        <v>148331.018518895</v>
       </c>
       <c r="K319">
         <v>0</v>
       </c>
       <c r="L319">
-        <v>0.196525826484587</v>
+        <v>0.137863743061582</v>
       </c>
       <c r="M319">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.3">
@@ -9374,19 +9380,19 @@
         <v>11.5235555555555</v>
       </c>
       <c r="C320">
-        <v>0.27626624616911799</v>
+        <v>0.28608941793228898</v>
       </c>
       <c r="D320">
-        <v>1457029.8188020799</v>
+        <v>2240027.8040895001</v>
       </c>
       <c r="E320">
-        <v>698615.35906206397</v>
+        <v>676236.25757073902</v>
       </c>
       <c r="F320">
         <v>0</v>
       </c>
       <c r="G320">
-        <v>605299.699953084</v>
+        <v>1414127.2221767399</v>
       </c>
       <c r="H320">
         <v>0</v>
@@ -9395,16 +9401,16 @@
         <v>0</v>
       </c>
       <c r="J320">
-        <v>153114.75978694001</v>
+        <v>149664.324342015</v>
       </c>
       <c r="K320">
         <v>0</v>
       </c>
       <c r="L320">
-        <v>0.19650257860683601</v>
+        <v>0.13782208564316101</v>
       </c>
       <c r="M320">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.3">
@@ -9415,19 +9421,19 @@
         <v>11.574999999999999</v>
       </c>
       <c r="C321">
-        <v>0.27749957762522998</v>
+        <v>0.28736660283377202</v>
       </c>
       <c r="D321">
-        <v>1485110.23292087</v>
+        <v>2299538.1064045699</v>
       </c>
       <c r="E321">
-        <v>704490.04518543906</v>
+        <v>681921.22049081302</v>
       </c>
       <c r="F321">
         <v>0</v>
       </c>
       <c r="G321">
-        <v>626135.28032524395</v>
+        <v>1466613.29017446</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -9436,16 +9442,16 @@
         <v>0</v>
       </c>
       <c r="J321">
-        <v>154484.907410193</v>
+        <v>151003.59573928799</v>
       </c>
       <c r="K321">
         <v>0</v>
       </c>
       <c r="L321">
-        <v>0.196479454708051</v>
+        <v>0.13778064893763201</v>
       </c>
       <c r="M321">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
@@ -9456,19 +9462,19 @@
         <v>11.626444444444401</v>
       </c>
       <c r="C322">
-        <v>0.27873290908134202</v>
+        <v>0.28864378773525601</v>
       </c>
       <c r="D322">
-        <v>1513601.7642107999</v>
+        <v>2360370.7770611201</v>
       </c>
       <c r="E322">
-        <v>710387.85204825795</v>
+        <v>687628.54548563401</v>
       </c>
       <c r="F322">
         <v>0</v>
       </c>
       <c r="G322">
-        <v>647352.75402164296</v>
+        <v>1520393.3988647701</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -9477,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="J322">
-        <v>155861.158140899</v>
+        <v>152348.83271071399</v>
       </c>
       <c r="K322">
         <v>0</v>
       </c>
       <c r="L322">
-        <v>0.19645645357420599</v>
+        <v>0.13773943079224599</v>
       </c>
       <c r="M322">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.3">
@@ -9497,19 +9503,19 @@
         <v>11.6778888888888</v>
       </c>
       <c r="C323">
-        <v>0.279966240537454</v>
+        <v>0.28992097263673899</v>
       </c>
       <c r="D323">
-        <v>1542464.49434457</v>
+        <v>2422417.3173122001</v>
       </c>
       <c r="E323">
-        <v>716308.768519504</v>
+        <v>693358.22174915601</v>
       </c>
       <c r="F323">
         <v>0</v>
       </c>
       <c r="G323">
-        <v>668912.213846014</v>
+        <v>1575359.06030675</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -9518,16 +9524,16 @@
         <v>0</v>
       </c>
       <c r="J323">
-        <v>157243.51197905801</v>
+        <v>153700.035256292</v>
       </c>
       <c r="K323">
         <v>0</v>
       </c>
       <c r="L323">
-        <v>0.196433574008506</v>
+        <v>0.137698429084714</v>
       </c>
       <c r="M323">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
@@ -9538,19 +9544,19 @@
         <v>11.729333333333299</v>
       </c>
       <c r="C324">
-        <v>0.28119957199356599</v>
+        <v>0.29119815753822298</v>
       </c>
       <c r="D324">
-        <v>1571655.64689559</v>
+        <v>2485556.9273814298</v>
       </c>
       <c r="E324">
-        <v>722252.78352524096</v>
+        <v>699110.23853078205</v>
       </c>
       <c r="F324">
         <v>0</v>
       </c>
       <c r="G324">
-        <v>690770.89444568497</v>
+        <v>1631389.48547462</v>
       </c>
       <c r="H324">
         <v>0</v>
@@ -9559,16 +9565,16 @@
         <v>0</v>
       </c>
       <c r="J324">
-        <v>158631.968924671</v>
+        <v>155057.20337602301</v>
       </c>
       <c r="K324">
         <v>0</v>
       </c>
       <c r="L324">
-        <v>0.19641081483106601</v>
+        <v>0.13765764172264799</v>
       </c>
       <c r="M324">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.3">
@@ -9579,19 +9585,19 @@
         <v>11.780777777777701</v>
       </c>
       <c r="C325">
-        <v>0.28243290344967897</v>
+        <v>0.29247534243970602</v>
       </c>
       <c r="D325">
-        <v>1601130.0252336301</v>
+        <v>2549657.54606969</v>
       </c>
       <c r="E325">
-        <v>728219.88604807097</v>
+        <v>704884.58513482602</v>
       </c>
       <c r="F325">
         <v>0</v>
       </c>
       <c r="G325">
-        <v>712883.61020782206</v>
+        <v>1688352.6238649599</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -9600,16 +9606,16 @@
         <v>0</v>
       </c>
       <c r="J325">
-        <v>160026.52897773701</v>
+        <v>156420.337069906</v>
       </c>
       <c r="K325">
         <v>0</v>
       </c>
       <c r="L325">
-        <v>0.196388174878598</v>
+        <v>0.13761706664301099</v>
       </c>
       <c r="M325">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
@@ -9620,19 +9626,19 @@
         <v>11.8322222222222</v>
       </c>
       <c r="C326">
-        <v>0.28366623490579101</v>
+        <v>0.29375252734119001</v>
       </c>
       <c r="D326">
-        <v>1630840.50000655</v>
+        <v>2614577.1181022502</v>
       </c>
       <c r="E326">
-        <v>734210.06512659497</v>
+        <v>710681.25091999501</v>
       </c>
       <c r="F326">
         <v>0</v>
       </c>
       <c r="G326">
-        <v>735203.24274170701</v>
+        <v>1746106.43084431</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -9641,16 +9647,16 @@
         <v>0</v>
       </c>
       <c r="J326">
-        <v>161427.19213825601</v>
+        <v>157789.43633794301</v>
       </c>
       <c r="K326">
         <v>0</v>
       </c>
       <c r="L326">
-        <v>0.196365653004105</v>
+        <v>0.137576701811574</v>
       </c>
       <c r="M326">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
@@ -9661,19 +9667,19 @@
         <v>11.883666666666601</v>
       </c>
       <c r="C327">
-        <v>0.284899566361903</v>
+        <v>0.29502971224267299</v>
       </c>
       <c r="D327">
-        <v>1660738.5382773101</v>
+        <v>2680165.0734351799</v>
       </c>
       <c r="E327">
-        <v>740223.30985488696</v>
+        <v>716500.22529887501</v>
       </c>
       <c r="F327">
         <v>0</v>
       </c>
       <c r="G327">
-        <v>757681.27001619595</v>
+        <v>1804500.3469561699</v>
       </c>
       <c r="H327">
         <v>0</v>
@@ -9682,16 +9688,16 @@
         <v>0</v>
       </c>
       <c r="J327">
-        <v>162833.95840622799</v>
+        <v>159164.50118013201</v>
       </c>
       <c r="K327">
         <v>0</v>
       </c>
       <c r="L327">
-        <v>0.19634324807658701</v>
+        <v>0.137536545222394</v>
       </c>
       <c r="M327">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
@@ -9702,19 +9708,19 @@
         <v>11.9351111111111</v>
       </c>
       <c r="C328">
-        <v>0.28613289781801499</v>
+        <v>0.29630689714415598</v>
       </c>
       <c r="D328">
-        <v>1690774.7651404799</v>
+        <v>2746263.9960245299</v>
       </c>
       <c r="E328">
-        <v>746259.60938196699</v>
+        <v>722341.497737422</v>
       </c>
       <c r="F328">
         <v>0</v>
       </c>
       <c r="G328">
-        <v>780268.32797686604</v>
+        <v>1863376.96669063</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -9723,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="J328">
-        <v>164246.82778165399</v>
+        <v>160545.53159647301</v>
       </c>
       <c r="K328">
         <v>0</v>
       </c>
       <c r="L328">
-        <v>0.196320958980745</v>
+        <v>0.13749659489729801</v>
       </c>
       <c r="M328">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
@@ -9743,19 +9749,19 @@
         <v>11.986555555555499</v>
       </c>
       <c r="C329">
-        <v>0.28736622927412703</v>
+        <v>0.29758408204564002</v>
       </c>
       <c r="D329">
-        <v>1720899.5476578299</v>
+        <v>2812711.4533524201</v>
       </c>
       <c r="E329">
-        <v>752318.95291129197</v>
+        <v>728205.05775446899</v>
       </c>
       <c r="F329">
         <v>0</v>
       </c>
       <c r="G329">
-        <v>802914.79448200495</v>
+        <v>1922573.8680109801</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -9764,16 +9770,16 @@
         <v>0</v>
       </c>
       <c r="J329">
-        <v>165665.80026453201</v>
+        <v>161932.52758696699</v>
       </c>
       <c r="K329">
         <v>0</v>
       </c>
       <c r="L329">
-        <v>0.196298784616697</v>
+        <v>0.13745684888538001</v>
       </c>
       <c r="M329">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
@@ -9784,19 +9790,19 @@
         <v>12.038</v>
       </c>
       <c r="C330">
-        <v>0.28859956073023901</v>
+        <v>0.29886126694712301</v>
       </c>
       <c r="D330">
-        <v>1751063.59026838</v>
+        <v>2879341.95259149</v>
       </c>
       <c r="E330">
-        <v>758401.32970024797</v>
+        <v>734090.894921222</v>
       </c>
       <c r="F330">
         <v>0</v>
       </c>
       <c r="G330">
-        <v>825571.38471327303</v>
+        <v>1981925.56851865</v>
       </c>
       <c r="H330">
         <v>0</v>
@@ -9805,16 +9811,16 @@
         <v>0</v>
       </c>
       <c r="J330">
-        <v>167090.87585486501</v>
+        <v>163325.48915161399</v>
       </c>
       <c r="K330">
         <v>0</v>
       </c>
       <c r="L330">
-        <v>0.19627672389970399</v>
+        <v>0.137417305262512</v>
       </c>
       <c r="M330">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.3">
@@ -9825,19 +9831,19 @@
         <v>12.0894444444444</v>
       </c>
       <c r="C331">
-        <v>0.289832892186351</v>
+        <v>0.30013845184860699</v>
       </c>
       <c r="D331">
-        <v>1781218.5304777699</v>
+        <v>2945988.9849275202</v>
       </c>
       <c r="E331">
-        <v>764506.729059643</v>
+        <v>739998.99886078201</v>
       </c>
       <c r="F331">
         <v>0</v>
       </c>
       <c r="G331">
-        <v>848189.74686547602</v>
+        <v>2041265.5697763299</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -9846,16 +9852,16 @@
         <v>0</v>
       </c>
       <c r="J331">
-        <v>168522.05455264999</v>
+        <v>164724.416290414</v>
       </c>
       <c r="K331">
         <v>0</v>
       </c>
       <c r="L331">
-        <v>0.19625477575988901</v>
+        <v>0.13737796213086001</v>
       </c>
       <c r="M331">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
@@ -9866,19 +9872,19 @@
         <v>12.140888888888799</v>
       </c>
       <c r="C332">
-        <v>0.29106622364246398</v>
+        <v>0.30141563675008998</v>
       </c>
       <c r="D332">
-        <v>1811317.5236255</v>
+        <v>3012487.1164563098</v>
       </c>
       <c r="E332">
-        <v>770635.14035322005</v>
+        <v>745929.35924766096</v>
       </c>
       <c r="F332">
         <v>0</v>
       </c>
       <c r="G332">
-        <v>870723.04691439704</v>
+        <v>2100428.4482052801</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -9887,16 +9893,16 @@
         <v>0</v>
       </c>
       <c r="J332">
-        <v>169959.33635788801</v>
+        <v>166129.30900336601</v>
       </c>
       <c r="K332">
         <v>0</v>
       </c>
       <c r="L332">
-        <v>0.19623293914198001</v>
+        <v>0.13733881761841599</v>
       </c>
       <c r="M332">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
@@ -9907,19 +9913,19 @@
         <v>12.1923333333333</v>
       </c>
       <c r="C333">
-        <v>0.29229955509857602</v>
+        <v>0.30269282165157402</v>
       </c>
       <c r="D333">
-        <v>1841315.8058682301</v>
+        <v>3078674.0823693299</v>
       </c>
       <c r="E333">
-        <v>776786.55299716606</v>
+        <v>751881.96580730902</v>
       </c>
       <c r="F333">
         <v>0</v>
       </c>
       <c r="G333">
-        <v>893126.53160048195</v>
+        <v>2159251.9492715499</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -9928,16 +9934,16 @@
         <v>0</v>
       </c>
       <c r="J333">
-        <v>171402.72127057999</v>
+        <v>167540.167290471</v>
       </c>
       <c r="K333">
         <v>0</v>
       </c>
       <c r="L333">
-        <v>0.19621121300504199</v>
+        <v>0.13729986987853901</v>
       </c>
       <c r="M333">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.3">
@@ -9948,19 +9954,19 @@
         <v>12.2437777777777</v>
       </c>
       <c r="C334">
-        <v>0.29353288655468801</v>
+        <v>0.303970006553057</v>
       </c>
       <c r="D334">
-        <v>1871171.2251827701</v>
+        <v>3144392.8409182499</v>
       </c>
       <c r="E334">
-        <v>782960.95645963401</v>
+        <v>757856.80831564998</v>
       </c>
       <c r="F334">
         <v>0</v>
       </c>
       <c r="G334">
-        <v>915358.05943241797</v>
+        <v>2217579.04145088</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -9969,16 +9975,16 @@
         <v>0</v>
       </c>
       <c r="J334">
-        <v>172852.209290725</v>
+        <v>168956.991151728</v>
       </c>
       <c r="K334">
         <v>0</v>
       </c>
       <c r="L334">
-        <v>0.19618959632222799</v>
+        <v>0.137261117089502</v>
       </c>
       <c r="M334">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.3">
@@ -9989,19 +9995,19 @@
         <v>12.295222222222201</v>
       </c>
       <c r="C335">
-        <v>0.2947662180108</v>
+        <v>0.30524719145453999</v>
       </c>
       <c r="D335">
-        <v>1900844.7311553501</v>
+        <v>3209493.5449017901</v>
       </c>
       <c r="E335">
-        <v>789158.34026026295</v>
+        <v>763853.87659861601</v>
       </c>
       <c r="F335">
         <v>0</v>
       </c>
       <c r="G335">
-        <v>937378.59047676704</v>
+        <v>2275259.8877160298</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -10010,16 +10016,16 @@
         <v>0</v>
       </c>
       <c r="J335">
-        <v>174307.80041832299</v>
+        <v>170379.78058713899</v>
       </c>
       <c r="K335">
         <v>0</v>
       </c>
       <c r="L335">
-        <v>0.19616808808052499</v>
+        <v>0.13722255745405801</v>
       </c>
       <c r="M335">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
@@ -10030,19 +10036,19 @@
         <v>12.3466666666666</v>
       </c>
       <c r="C336">
-        <v>0.29599954946691198</v>
+        <v>0.30652437635602398</v>
       </c>
       <c r="D336">
-        <v>1930300.8155378399</v>
+        <v>3273835.39107983</v>
       </c>
       <c r="E336">
-        <v>795378.69396971702</v>
+        <v>769873.16053169698</v>
       </c>
       <c r="F336">
         <v>0</v>
       </c>
       <c r="G336">
-        <v>959152.62691475695</v>
+        <v>2332153.69495143</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -10051,16 +10057,16 @@
         <v>0</v>
       </c>
       <c r="J336">
-        <v>175769.494653375</v>
+        <v>171808.535596701</v>
       </c>
       <c r="K336">
         <v>0</v>
       </c>
       <c r="L336">
-        <v>0.19614668728051499</v>
+        <v>0.13718418919900499</v>
       </c>
       <c r="M336">
-        <v>0.192872203252275</v>
+        <v>0.19639847709455899</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -10070,85 +10076,90 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>103</v>
-      </c>
-      <c r="B339">
-        <v>0.1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>17</v>
+        <v>103</v>
+      </c>
+      <c r="B340">
+        <v>0.1</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>104</v>
-      </c>
-      <c r="B343">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B345">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>20</v>
+        <v>106</v>
+      </c>
+      <c r="B346">
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>107</v>
-      </c>
-      <c r="B348">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="B350">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -10160,7 +10171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E984987-1140-4E8B-80CE-8BA0A9C04A5A}">
   <dimension ref="A2:M350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
